--- a/raw_data/20200818_saline/20200818_Sensor1_Test_18.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_18.xlsx
@@ -1,855 +1,1271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC277509-3624-4C86-B9A6-E2997CC42F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
         <v>15488.688291</v>
       </c>
       <c r="B2" s="1">
-        <v>4.302413</v>
+        <v>4.3024129999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>896.820000</v>
+        <v>896.82</v>
       </c>
       <c r="D2" s="1">
-        <v>-200.786000</v>
+        <v>-200.786</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>15499.075049</v>
+        <v>15499.075048999999</v>
       </c>
       <c r="G2" s="1">
-        <v>4.305299</v>
+        <v>4.3052989999999998</v>
       </c>
       <c r="H2" s="1">
-        <v>914.538000</v>
+        <v>914.53800000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-169.398000</v>
+        <v>-169.398</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>15509.574831</v>
       </c>
       <c r="L2" s="1">
-        <v>4.308215</v>
+        <v>4.3082149999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>937.419000</v>
+        <v>937.41899999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.960000</v>
+        <v>-119.96</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>15520.045369</v>
+        <v>15520.045368999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.311124</v>
+        <v>4.3111240000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>943.860000</v>
+        <v>943.86</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.407000</v>
+        <v>-103.407</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>15530.615645</v>
       </c>
       <c r="V2" s="1">
-        <v>4.314060</v>
+        <v>4.3140599999999996</v>
       </c>
       <c r="W2" s="1">
-        <v>950.173000</v>
+        <v>950.173</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.340200</v>
+        <v>-88.340199999999996</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>15541.408557</v>
+        <v>15541.408557000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.317058</v>
+        <v>4.3170580000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>957.116000</v>
+        <v>957.11599999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.878500</v>
+        <v>-76.878500000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>15552.301695</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.320084</v>
+        <v>4.3200839999999996</v>
       </c>
       <c r="AG2" s="1">
-        <v>961.674000</v>
+        <v>961.67399999999998</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.804600</v>
+        <v>-74.804599999999994</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>15562.752930</v>
+        <v>15562.752930000001</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.322987</v>
+        <v>4.3229870000000004</v>
       </c>
       <c r="AL2" s="1">
-        <v>968.833000</v>
+        <v>968.83299999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.757300</v>
+        <v>-79.757300000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>15573.302803</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.325917</v>
+        <v>4.3259169999999996</v>
       </c>
       <c r="AQ2" s="1">
-        <v>976.920000</v>
+        <v>976.92</v>
       </c>
       <c r="AR2" s="1">
-        <v>-91.571300</v>
+        <v>-91.571299999999994</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>15584.287738</v>
+        <v>15584.287738000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.328969</v>
+        <v>4.3289689999999998</v>
       </c>
       <c r="AV2" s="1">
-        <v>986.785000</v>
+        <v>986.78499999999997</v>
       </c>
       <c r="AW2" s="1">
-        <v>-109.496000</v>
+        <v>-109.496</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>15595.374279</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.332048</v>
+        <v>4.3320480000000003</v>
       </c>
       <c r="BA2" s="1">
-        <v>995.077000</v>
+        <v>995.077</v>
       </c>
       <c r="BB2" s="1">
-        <v>-125.344000</v>
+        <v>-125.34399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>15606.368135</v>
+        <v>15606.368135000001</v>
       </c>
       <c r="BE2" s="1">
         <v>4.335102</v>
       </c>
       <c r="BF2" s="1">
-        <v>1033.820000</v>
+        <v>1033.82</v>
       </c>
       <c r="BG2" s="1">
-        <v>-198.046000</v>
+        <v>-198.04599999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>15617.301417</v>
+        <v>15617.301417000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>4.338139</v>
       </c>
       <c r="BK2" s="1">
-        <v>1100.620000</v>
+        <v>1100.6199999999999</v>
       </c>
       <c r="BL2" s="1">
-        <v>-316.210000</v>
+        <v>-316.20999999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>15628.382042</v>
+        <v>15628.382041999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.341217</v>
+        <v>4.3412170000000003</v>
       </c>
       <c r="BP2" s="1">
-        <v>1209.290000</v>
+        <v>1209.29</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-503.109000</v>
+        <v>-503.10899999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>15639.160605</v>
+        <v>15639.160604999999</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.344211</v>
+        <v>4.3442109999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1331.800000</v>
+        <v>1331.8</v>
       </c>
       <c r="BV2" s="1">
-        <v>-708.402000</v>
+        <v>-708.40200000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>15649.751678</v>
+        <v>15649.751678000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.347153</v>
+        <v>4.3471529999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1469.560000</v>
+        <v>1469.56</v>
       </c>
       <c r="CA2" s="1">
-        <v>-928.151000</v>
+        <v>-928.15099999999995</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>15660.681023</v>
+        <v>15660.681022999999</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.350189</v>
+        <v>4.3501890000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>1831.850000</v>
+        <v>1831.85</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1450.750000</v>
+        <v>-1450.75</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>15489.090050</v>
+        <v>15489.090050000001</v>
       </c>
       <c r="B3" s="1">
-        <v>4.302525</v>
+        <v>4.3025250000000002</v>
       </c>
       <c r="C3" s="1">
-        <v>896.837000</v>
+        <v>896.83699999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.717000</v>
+        <v>-200.71700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>15499.491190</v>
+        <v>15499.491190000001</v>
       </c>
       <c r="G3" s="1">
-        <v>4.305414</v>
+        <v>4.3054139999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>914.743000</v>
+        <v>914.74300000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.044000</v>
+        <v>-169.04400000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>15509.936903</v>
       </c>
       <c r="L3" s="1">
-        <v>4.308316</v>
+        <v>4.3083159999999996</v>
       </c>
       <c r="M3" s="1">
-        <v>937.330000</v>
+        <v>937.33</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.734000</v>
+        <v>-119.73399999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>15520.415881</v>
+        <v>15520.415881000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.311227</v>
+        <v>4.3112269999999997</v>
       </c>
       <c r="R3" s="1">
-        <v>943.820000</v>
+        <v>943.82</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.385000</v>
+        <v>-103.38500000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>15531.000508</v>
+        <v>15531.000507999999</v>
       </c>
       <c r="V3" s="1">
-        <v>4.314167</v>
+        <v>4.3141670000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>950.109000</v>
+        <v>950.10900000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.368400</v>
+        <v>-88.368399999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>15542.143628</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.317262</v>
+        <v>4.3172620000000004</v>
       </c>
       <c r="AB3" s="1">
-        <v>957.121000</v>
+        <v>957.12099999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.826400</v>
+        <v>-76.826400000000007</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>15552.677198</v>
+        <v>15552.677197999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.320188</v>
+        <v>4.3201879999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>961.679000</v>
+        <v>961.67899999999997</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.794900</v>
+        <v>-74.794899999999998</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>15563.102578</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.323084</v>
+        <v>4.3230839999999997</v>
       </c>
       <c r="AL3" s="1">
-        <v>968.816000</v>
+        <v>968.81600000000003</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.754600</v>
+        <v>-79.754599999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>15573.679896</v>
@@ -858,43 +1274,43 @@
         <v>4.326022</v>
       </c>
       <c r="AQ3" s="1">
-        <v>976.937000</v>
+        <v>976.93700000000001</v>
       </c>
       <c r="AR3" s="1">
-        <v>-91.545600</v>
+        <v>-91.545599999999993</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>15584.974165</v>
       </c>
       <c r="AU3" s="1">
-        <v>4.329159</v>
+        <v>4.3291589999999998</v>
       </c>
       <c r="AV3" s="1">
-        <v>986.773000</v>
+        <v>986.77300000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-109.502000</v>
+        <v>-109.502</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>15596.078597</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.332244</v>
+        <v>4.3322440000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>995.074000</v>
+        <v>995.07399999999996</v>
       </c>
       <c r="BB3" s="1">
-        <v>-125.364000</v>
+        <v>-125.364</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>15606.804122</v>
@@ -903,255 +1319,255 @@
         <v>4.335223</v>
       </c>
       <c r="BF3" s="1">
-        <v>1033.840000</v>
+        <v>1033.8399999999999</v>
       </c>
       <c r="BG3" s="1">
-        <v>-198.047000</v>
+        <v>-198.047</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>15617.706184</v>
+        <v>15617.706184000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.338252</v>
+        <v>4.3382519999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1100.670000</v>
+        <v>1100.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-316.228000</v>
+        <v>-316.22800000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>15628.816539</v>
+        <v>15628.816538999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.341338</v>
+        <v>4.3413380000000004</v>
       </c>
       <c r="BP3" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-503.140000</v>
+        <v>-503.14</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>15639.614476</v>
+        <v>15639.614476000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.344337</v>
+        <v>4.3443370000000003</v>
       </c>
       <c r="BU3" s="1">
-        <v>1331.730000</v>
+        <v>1331.73</v>
       </c>
       <c r="BV3" s="1">
-        <v>-708.502000</v>
+        <v>-708.50199999999995</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>15650.226846</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.347285</v>
+        <v>4.3472850000000003</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1469.510000</v>
+        <v>1469.51</v>
       </c>
       <c r="CA3" s="1">
-        <v>-928.265000</v>
+        <v>-928.26499999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>15661.249439</v>
+        <v>15661.249438999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.350347</v>
+        <v>4.3503470000000002</v>
       </c>
       <c r="CE3" s="1">
-        <v>1831.830000</v>
+        <v>1831.83</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1450.270000</v>
+        <v>-1450.27</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>15489.429314</v>
+        <v>15489.429314000001</v>
       </c>
       <c r="B4" s="1">
         <v>4.302619</v>
       </c>
       <c r="C4" s="1">
-        <v>897.002000</v>
+        <v>897.00199999999995</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.684000</v>
+        <v>-200.684</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>15499.834388</v>
+        <v>15499.834387999999</v>
       </c>
       <c r="G4" s="1">
-        <v>4.305510</v>
+        <v>4.3055099999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>914.756000</v>
+        <v>914.75599999999997</v>
       </c>
       <c r="I4" s="1">
-        <v>-169.632000</v>
+        <v>-169.63200000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>15510.282614</v>
       </c>
       <c r="L4" s="1">
-        <v>4.308412</v>
+        <v>4.3084119999999997</v>
       </c>
       <c r="M4" s="1">
-        <v>937.191000</v>
+        <v>937.19100000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.820000</v>
+        <v>-119.82</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>15521.114744</v>
       </c>
       <c r="Q4" s="1">
-        <v>4.311421</v>
+        <v>4.3114210000000002</v>
       </c>
       <c r="R4" s="1">
-        <v>943.816000</v>
+        <v>943.81600000000003</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>15531.685513</v>
       </c>
       <c r="V4" s="1">
-        <v>4.314357</v>
+        <v>4.3143570000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>950.186000</v>
+        <v>950.18600000000004</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.356300</v>
+        <v>-88.356300000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>15542.492812</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.317359</v>
+        <v>4.3173589999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>957.078000</v>
+        <v>957.07799999999997</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.750300</v>
+        <v>-76.750299999999996</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>15553.051150</v>
+        <v>15553.051149999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.320292</v>
+        <v>4.3202920000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>961.718000</v>
+        <v>961.71799999999996</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.792200</v>
+        <v>-74.792199999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>15563.453284</v>
+        <v>15563.453283999999</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.323181</v>
+        <v>4.3231809999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>968.838000</v>
+        <v>968.83799999999997</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.744300</v>
+        <v>-79.744299999999996</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>15574.347875</v>
+        <v>15574.347874999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.326208</v>
+        <v>4.3262080000000003</v>
       </c>
       <c r="AQ4" s="1">
-        <v>976.916000</v>
+        <v>976.91600000000005</v>
       </c>
       <c r="AR4" s="1">
-        <v>-91.547300</v>
+        <v>-91.547300000000007</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
         <v>15585.414116</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.329282</v>
+        <v>4.3292820000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>986.794000</v>
+        <v>986.79399999999998</v>
       </c>
       <c r="AW4" s="1">
-        <v>-109.524000</v>
+        <v>-109.524</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>15596.481383</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.332356</v>
+        <v>4.3323559999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>995.059000</v>
+        <v>995.05899999999997</v>
       </c>
       <c r="BB4" s="1">
-        <v>-125.333000</v>
+        <v>-125.333</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
         <v>15607.165174</v>
@@ -1160,73 +1576,73 @@
         <v>4.335324</v>
       </c>
       <c r="BF4" s="1">
-        <v>1033.860000</v>
+        <v>1033.8599999999999</v>
       </c>
       <c r="BG4" s="1">
-        <v>-198.042000</v>
+        <v>-198.042</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>15618.082643</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.338356</v>
+        <v>4.3383560000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1100.650000</v>
+        <v>1100.6500000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-316.274000</v>
+        <v>-316.274</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>15629.212841</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.341448</v>
+        <v>4.3414479999999998</v>
       </c>
       <c r="BP4" s="1">
-        <v>1209.310000</v>
+        <v>1209.31</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-503.110000</v>
+        <v>-503.11</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>15640.053443</v>
+        <v>15640.053443000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>4.344459</v>
+        <v>4.3444589999999996</v>
       </c>
       <c r="BU4" s="1">
-        <v>1331.760000</v>
+        <v>1331.76</v>
       </c>
       <c r="BV4" s="1">
-        <v>-708.475000</v>
+        <v>-708.47500000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
         <v>15650.661837</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.347406</v>
+        <v>4.3474060000000003</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA4" s="1">
-        <v>-928.232000</v>
+        <v>-928.23199999999997</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>15661.769742</v>
@@ -1235,407 +1651,407 @@
         <v>4.350492</v>
       </c>
       <c r="CE4" s="1">
-        <v>1832.890000</v>
+        <v>1832.89</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1450.610000</v>
+        <v>-1450.61</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
         <v>15489.772545</v>
       </c>
       <c r="B5" s="1">
-        <v>4.302715</v>
+        <v>4.3027150000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>897.029000</v>
+        <v>897.029</v>
       </c>
       <c r="D5" s="1">
-        <v>-200.541000</v>
+        <v>-200.541</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
         <v>15500.178628</v>
       </c>
       <c r="G5" s="1">
-        <v>4.305605</v>
+        <v>4.3056049999999999</v>
       </c>
       <c r="H5" s="1">
-        <v>914.663000</v>
+        <v>914.66300000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.616000</v>
+        <v>-169.61600000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>15510.972549</v>
       </c>
       <c r="L5" s="1">
-        <v>4.308603</v>
+        <v>4.3086029999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>937.443000</v>
+        <v>937.44299999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.616000</v>
+        <v>-119.616</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>15521.461447</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.311517</v>
+        <v>4.3115170000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>943.838000</v>
+        <v>943.83799999999997</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.374000</v>
+        <v>-103.374</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>15532.016314</v>
       </c>
       <c r="V5" s="1">
-        <v>4.314449</v>
+        <v>4.3144489999999998</v>
       </c>
       <c r="W5" s="1">
-        <v>950.136000</v>
+        <v>950.13599999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.361900</v>
+        <v>-88.361900000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>15542.839516</v>
       </c>
       <c r="AA5" s="1">
-        <v>4.317455</v>
+        <v>4.3174549999999998</v>
       </c>
       <c r="AB5" s="1">
-        <v>957.145000</v>
+        <v>957.14499999999998</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.880900</v>
+        <v>-76.880899999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>15553.695976</v>
+        <v>15553.695976000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.320471</v>
+        <v>4.3204710000000004</v>
       </c>
       <c r="AG5" s="1">
-        <v>961.670000</v>
+        <v>961.67</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.830700</v>
+        <v>-74.830699999999993</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>15564.113425</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.323365</v>
+        <v>4.3233649999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>968.839000</v>
+        <v>968.83900000000006</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.759400</v>
+        <v>-79.759399999999999</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>15574.788321</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.326330</v>
+        <v>4.3263299999999996</v>
       </c>
       <c r="AQ5" s="1">
-        <v>976.914000</v>
+        <v>976.91399999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-91.550600</v>
+        <v>-91.550600000000003</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>15585.781685</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.329384</v>
+        <v>4.3293840000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>986.772000</v>
+        <v>986.77200000000005</v>
       </c>
       <c r="AW5" s="1">
-        <v>-109.512000</v>
+        <v>-109.512</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>15596.864295</v>
+        <v>15596.864294999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.332462</v>
+        <v>4.3324619999999996</v>
       </c>
       <c r="BA5" s="1">
-        <v>995.064000</v>
+        <v>995.06399999999996</v>
       </c>
       <c r="BB5" s="1">
-        <v>-125.325000</v>
+        <v>-125.325</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>15607.530759</v>
+        <v>15607.530758999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.335425</v>
+        <v>4.3354249999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1033.870000</v>
+        <v>1033.8699999999999</v>
       </c>
       <c r="BG5" s="1">
-        <v>-198.040000</v>
+        <v>-198.04</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
         <v>15618.500247</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.338472</v>
+        <v>4.3384720000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1100.680000</v>
+        <v>1100.68</v>
       </c>
       <c r="BL5" s="1">
-        <v>-316.297000</v>
+        <v>-316.29700000000003</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>15629.633450</v>
+        <v>15629.633449999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.341565</v>
+        <v>4.3415650000000001</v>
       </c>
       <c r="BP5" s="1">
-        <v>1209.350000</v>
+        <v>1209.3499999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-503.134000</v>
+        <v>-503.13400000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>15640.456651</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.344571</v>
+        <v>4.3445710000000002</v>
       </c>
       <c r="BU5" s="1">
-        <v>1331.780000</v>
+        <v>1331.78</v>
       </c>
       <c r="BV5" s="1">
-        <v>-708.504000</v>
+        <v>-708.50400000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>15651.083932</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.347523</v>
+        <v>4.3475229999999998</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1469.520000</v>
+        <v>1469.52</v>
       </c>
       <c r="CA5" s="1">
-        <v>-928.194000</v>
+        <v>-928.19399999999996</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>15662.285121</v>
+        <v>15662.285121000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.350635</v>
+        <v>4.3506349999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>1833.240000</v>
+        <v>1833.24</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1449.600000</v>
+        <v>-1449.6</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>15490.454048</v>
       </c>
       <c r="B6" s="1">
-        <v>4.302904</v>
+        <v>4.3029039999999998</v>
       </c>
       <c r="C6" s="1">
-        <v>896.926000</v>
+        <v>896.92600000000004</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.627000</v>
+        <v>-200.62700000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
         <v>15500.868547</v>
       </c>
       <c r="G6" s="1">
-        <v>4.305797</v>
+        <v>4.3057970000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>914.624000</v>
+        <v>914.62400000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.603000</v>
+        <v>-169.60300000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>15511.317269</v>
+        <v>15511.317268999999</v>
       </c>
       <c r="L6" s="1">
-        <v>4.308699</v>
+        <v>4.3086989999999998</v>
       </c>
       <c r="M6" s="1">
-        <v>937.258000</v>
+        <v>937.25800000000004</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.950000</v>
+        <v>-119.95</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>15521.810631</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.311614</v>
+        <v>4.3116139999999996</v>
       </c>
       <c r="R6" s="1">
-        <v>943.869000</v>
+        <v>943.86900000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.394000</v>
+        <v>-103.39400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>15532.373433</v>
+        <v>15532.373433000001</v>
       </c>
       <c r="V6" s="1">
-        <v>4.314548</v>
+        <v>4.3145480000000003</v>
       </c>
       <c r="W6" s="1">
-        <v>950.131000</v>
+        <v>950.13099999999997</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.363500</v>
+        <v>-88.363500000000002</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>15543.508154</v>
+        <v>15543.508153999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>4.317641</v>
+        <v>4.3176410000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>957.118000</v>
+        <v>957.11800000000005</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.912500</v>
+        <v>-76.912499999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>15554.079390</v>
+        <v>15554.079390000001</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.320578</v>
+        <v>4.3205780000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>961.658000</v>
+        <v>961.65800000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.799100</v>
+        <v>-74.799099999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>15564.501295</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.323473</v>
+        <v>4.3234729999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>968.834000</v>
+        <v>968.83399999999995</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.771400</v>
+        <v>-79.7714</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>15575.145942</v>
+        <v>15575.145941999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.326429</v>
+        <v>4.3264290000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>976.913000</v>
+        <v>976.91300000000001</v>
       </c>
       <c r="AR6" s="1">
-        <v>-91.569900</v>
+        <v>-91.569900000000004</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>15586.145714</v>
@@ -1644,225 +2060,225 @@
         <v>4.329485</v>
       </c>
       <c r="AV6" s="1">
-        <v>986.776000</v>
+        <v>986.77599999999995</v>
       </c>
       <c r="AW6" s="1">
-        <v>-109.528000</v>
+        <v>-109.52800000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>15597.222372</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.332562</v>
+        <v>4.3325620000000002</v>
       </c>
       <c r="BA6" s="1">
-        <v>995.060000</v>
+        <v>995.06</v>
       </c>
       <c r="BB6" s="1">
-        <v>-125.330000</v>
+        <v>-125.33</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>15607.957782</v>
+        <v>15607.957781999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.335544</v>
+        <v>4.3355439999999996</v>
       </c>
       <c r="BF6" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-198.052000</v>
+        <v>-198.05199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>15618.859162</v>
+        <v>15618.859162000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.338572</v>
+        <v>4.3385720000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1100.630000</v>
+        <v>1100.6300000000001</v>
       </c>
       <c r="BL6" s="1">
-        <v>-316.234000</v>
+        <v>-316.23399999999998</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>15630.032728</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.341676</v>
+        <v>4.3416759999999996</v>
       </c>
       <c r="BP6" s="1">
-        <v>1209.310000</v>
+        <v>1209.31</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-503.152000</v>
+        <v>-503.15199999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>15640.871803</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.344687</v>
+        <v>4.3446870000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="BV6" s="1">
-        <v>-708.474000</v>
+        <v>-708.47400000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>15651.505534</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.347640</v>
+        <v>4.3476400000000002</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA6" s="1">
-        <v>-928.130000</v>
+        <v>-928.13</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>15662.803933</v>
+        <v>15662.803932999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.350779</v>
+        <v>4.3507790000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>1831.920000</v>
+        <v>1831.92</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1449.310000</v>
+        <v>-1449.31</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>15490.801280</v>
+        <v>15490.80128</v>
       </c>
       <c r="B7" s="1">
-        <v>4.303000</v>
+        <v>4.3029999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>897.080000</v>
+        <v>897.08</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.785000</v>
+        <v>-200.785</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>15501.199875</v>
       </c>
       <c r="G7" s="1">
-        <v>4.305889</v>
+        <v>4.3058889999999996</v>
       </c>
       <c r="H7" s="1">
-        <v>914.303000</v>
+        <v>914.303</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.278000</v>
+        <v>-169.27799999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>15511.664965</v>
       </c>
       <c r="L7" s="1">
-        <v>4.308796</v>
+        <v>4.3087960000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>937.268000</v>
+        <v>937.26800000000003</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.717000</v>
+        <v>-119.717</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
         <v>15522.466838</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.311796</v>
+        <v>4.3117960000000002</v>
       </c>
       <c r="R7" s="1">
-        <v>943.859000</v>
+        <v>943.85900000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.423000</v>
+        <v>-103.423</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>15533.024680</v>
+        <v>15533.02468</v>
       </c>
       <c r="V7" s="1">
-        <v>4.314729</v>
+        <v>4.3147289999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>950.241000</v>
+        <v>950.24099999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.364100</v>
+        <v>-88.364099999999993</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>15543.887066</v>
+        <v>15543.887065999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.317746</v>
+        <v>4.3177459999999996</v>
       </c>
       <c r="AB7" s="1">
-        <v>957.207000</v>
+        <v>957.20699999999999</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.895100</v>
+        <v>-76.895099999999999</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>15554.424572</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.320673</v>
+        <v>4.3206730000000002</v>
       </c>
       <c r="AG7" s="1">
-        <v>961.686000</v>
+        <v>961.68600000000004</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.840200</v>
+        <v>-74.840199999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>15564.848495</v>
@@ -1871,572 +2287,572 @@
         <v>4.323569</v>
       </c>
       <c r="AL7" s="1">
-        <v>968.809000</v>
+        <v>968.80899999999997</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.725000</v>
+        <v>-79.724999999999994</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>15575.507024</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.326530</v>
+        <v>4.32653</v>
       </c>
       <c r="AQ7" s="1">
-        <v>976.891000</v>
+        <v>976.89099999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-91.577300</v>
+        <v>-91.577299999999994</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>15586.570786</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.329603</v>
+        <v>4.3296029999999996</v>
       </c>
       <c r="AV7" s="1">
-        <v>986.777000</v>
+        <v>986.77700000000004</v>
       </c>
       <c r="AW7" s="1">
-        <v>-109.529000</v>
+        <v>-109.529</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>15597.655875</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.332682</v>
+        <v>4.3326820000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>995.070000</v>
+        <v>995.07</v>
       </c>
       <c r="BB7" s="1">
-        <v>-125.328000</v>
+        <v>-125.328</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>15608.250918</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.335625</v>
+        <v>4.3356250000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1033.860000</v>
+        <v>1033.8599999999999</v>
       </c>
       <c r="BG7" s="1">
-        <v>-198.043000</v>
+        <v>-198.04300000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>15619.231350</v>
+        <v>15619.23135</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.338675</v>
+        <v>4.3386750000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1100.660000</v>
+        <v>1100.6600000000001</v>
       </c>
       <c r="BL7" s="1">
-        <v>-316.271000</v>
+        <v>-316.27100000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>15630.453832</v>
+        <v>15630.453831999999</v>
       </c>
       <c r="BO7" s="1">
         <v>4.341793</v>
       </c>
       <c r="BP7" s="1">
-        <v>1209.290000</v>
+        <v>1209.29</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-503.161000</v>
+        <v>-503.161</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>15641.284473</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.344801</v>
+        <v>4.3448010000000004</v>
       </c>
       <c r="BU7" s="1">
-        <v>1331.800000</v>
+        <v>1331.8</v>
       </c>
       <c r="BV7" s="1">
-        <v>-708.506000</v>
+        <v>-708.50599999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>15651.929644</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.347758</v>
+        <v>4.3477579999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1469.560000</v>
+        <v>1469.56</v>
       </c>
       <c r="CA7" s="1">
-        <v>-928.237000</v>
+        <v>-928.23699999999997</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>15663.324700</v>
+        <v>15663.324699999999</v>
       </c>
       <c r="CD7" s="1">
         <v>4.350924</v>
       </c>
       <c r="CE7" s="1">
-        <v>1832.240000</v>
+        <v>1832.24</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1449.290000</v>
+        <v>-1449.29</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>15491.143985</v>
+        <v>15491.143985000001</v>
       </c>
       <c r="B8" s="1">
         <v>4.303096</v>
       </c>
       <c r="C8" s="1">
-        <v>896.951000</v>
+        <v>896.95100000000002</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.754000</v>
+        <v>-200.75399999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>15501.866995</v>
       </c>
       <c r="G8" s="1">
-        <v>4.306074</v>
+        <v>4.3060739999999997</v>
       </c>
       <c r="H8" s="1">
-        <v>914.519000</v>
+        <v>914.51900000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-169.535000</v>
+        <v>-169.535</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>15512.325140</v>
+        <v>15512.325140000001</v>
       </c>
       <c r="L8" s="1">
-        <v>4.308979</v>
+        <v>4.3089789999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>937.382000</v>
+        <v>937.38199999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.681000</v>
+        <v>-119.681</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>15522.856233</v>
       </c>
       <c r="Q8" s="1">
-        <v>4.311905</v>
+        <v>4.3119050000000003</v>
       </c>
       <c r="R8" s="1">
-        <v>943.826000</v>
+        <v>943.82600000000002</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.412000</v>
+        <v>-103.41200000000001</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>15533.409577</v>
       </c>
       <c r="V8" s="1">
-        <v>4.314836</v>
+        <v>4.3148359999999997</v>
       </c>
       <c r="W8" s="1">
-        <v>950.217000</v>
+        <v>950.21699999999998</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.328400</v>
+        <v>-88.328400000000002</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>15544.235257</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.317843</v>
+        <v>4.3178429999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>957.069000</v>
+        <v>957.06899999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.876100</v>
+        <v>-76.876099999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>15554.769819</v>
+        <v>15554.769818999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.320769</v>
+        <v>4.3207690000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>961.674000</v>
+        <v>961.67399999999998</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.806200</v>
+        <v>-74.806200000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>15565.194702</v>
+        <v>15565.194702000001</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.323665</v>
+        <v>4.3236650000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>968.835000</v>
+        <v>968.83500000000004</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.771700</v>
+        <v>-79.771699999999996</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>15575.930607</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.326647</v>
+        <v>4.3266470000000004</v>
       </c>
       <c r="AQ8" s="1">
-        <v>976.905000</v>
+        <v>976.90499999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-91.575600</v>
+        <v>-91.575599999999994</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>15586.874833</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.329687</v>
+        <v>4.3296869999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>986.791000</v>
+        <v>986.79100000000005</v>
       </c>
       <c r="AW8" s="1">
-        <v>-109.517000</v>
+        <v>-109.517</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>15597.940578</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.332761</v>
+        <v>4.3327609999999996</v>
       </c>
       <c r="BA8" s="1">
-        <v>995.068000</v>
+        <v>995.06799999999998</v>
       </c>
       <c r="BB8" s="1">
-        <v>-125.357000</v>
+        <v>-125.357</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>15608.612004</v>
+        <v>15608.612004000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.335726</v>
+        <v>4.3357260000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1033.860000</v>
+        <v>1033.8599999999999</v>
       </c>
       <c r="BG8" s="1">
-        <v>-198.047000</v>
+        <v>-198.047</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>15619.607318</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.338780</v>
+        <v>4.3387799999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1100.620000</v>
+        <v>1100.6199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-316.284000</v>
+        <v>-316.28399999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>15630.851129</v>
+        <v>15630.851129000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>4.341903</v>
+        <v>4.3419030000000003</v>
       </c>
       <c r="BP8" s="1">
-        <v>1209.320000</v>
+        <v>1209.32</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-503.194000</v>
+        <v>-503.19400000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>15641.706105</v>
+        <v>15641.706104999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.344918</v>
+        <v>4.3449179999999998</v>
       </c>
       <c r="BU8" s="1">
-        <v>1331.790000</v>
+        <v>1331.79</v>
       </c>
       <c r="BV8" s="1">
-        <v>-708.525000</v>
+        <v>-708.52499999999998</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>15652.346251</v>
+        <v>15652.346251000001</v>
       </c>
       <c r="BY8" s="1">
         <v>4.347874</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1469.490000</v>
+        <v>1469.49</v>
       </c>
       <c r="CA8" s="1">
-        <v>-928.185000</v>
+        <v>-928.18499999999995</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>15663.876780</v>
+        <v>15663.876780000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.351077</v>
+        <v>4.3510770000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>1833.370000</v>
+        <v>1833.37</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1449.630000</v>
+        <v>-1449.63</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>15491.812095</v>
+        <v>15491.812094999999</v>
       </c>
       <c r="B9" s="1">
-        <v>4.303281</v>
+        <v>4.3032810000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>897.057000</v>
+        <v>897.05700000000002</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.708000</v>
+        <v>-200.708</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>15502.247425</v>
       </c>
       <c r="G9" s="1">
-        <v>4.306180</v>
+        <v>4.3061800000000003</v>
       </c>
       <c r="H9" s="1">
-        <v>914.897000</v>
+        <v>914.89700000000005</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.515000</v>
+        <v>-169.51499999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>15512.699123</v>
       </c>
       <c r="L9" s="1">
-        <v>4.309083</v>
+        <v>4.3090830000000002</v>
       </c>
       <c r="M9" s="1">
-        <v>937.317000</v>
+        <v>937.31700000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.850000</v>
+        <v>-119.85</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>15523.206373</v>
+        <v>15523.206373000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.312002</v>
+        <v>4.3120019999999997</v>
       </c>
       <c r="R9" s="1">
-        <v>943.820000</v>
+        <v>943.82</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.407000</v>
+        <v>-103.407</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>15533.757769</v>
       </c>
       <c r="V9" s="1">
-        <v>4.314933</v>
+        <v>4.3149329999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>950.182000</v>
+        <v>950.18200000000002</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.389300</v>
+        <v>-88.389300000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>15544.582953</v>
+        <v>15544.582952999999</v>
       </c>
       <c r="AA9" s="1">
-        <v>4.317940</v>
+        <v>4.3179400000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>957.136000</v>
+        <v>957.13599999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.756200</v>
+        <v>-76.756200000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>15555.181583</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.320884</v>
+        <v>4.3208840000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>961.663000</v>
+        <v>961.66300000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.836300</v>
+        <v>-74.836299999999994</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>15565.609357</v>
+        <v>15565.609356999999</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.323780</v>
+        <v>4.3237800000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>968.840000</v>
+        <v>968.84</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.795400</v>
+        <v>-79.795400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>15576.226752</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.326730</v>
+        <v>4.3267300000000004</v>
       </c>
       <c r="AQ9" s="1">
-        <v>976.929000</v>
+        <v>976.92899999999997</v>
       </c>
       <c r="AR9" s="1">
-        <v>-91.570000</v>
+        <v>-91.57</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>15587.235922</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.329788</v>
+        <v>4.3297879999999997</v>
       </c>
       <c r="AV9" s="1">
-        <v>986.775000</v>
+        <v>986.77499999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-109.531000</v>
+        <v>-109.53100000000001</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>15598.299224</v>
       </c>
       <c r="AZ9" s="1">
-        <v>4.332861</v>
+        <v>4.3328610000000003</v>
       </c>
       <c r="BA9" s="1">
-        <v>995.073000</v>
+        <v>995.07299999999998</v>
       </c>
       <c r="BB9" s="1">
-        <v>-125.330000</v>
+        <v>-125.33</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>15608.974612</v>
@@ -2445,58 +2861,58 @@
         <v>4.335826</v>
       </c>
       <c r="BF9" s="1">
-        <v>1033.840000</v>
+        <v>1033.8399999999999</v>
       </c>
       <c r="BG9" s="1">
-        <v>-198.060000</v>
+        <v>-198.06</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>15620.359782</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.338989</v>
+        <v>4.3389889999999998</v>
       </c>
       <c r="BK9" s="1">
-        <v>1100.690000</v>
+        <v>1100.69</v>
       </c>
       <c r="BL9" s="1">
-        <v>-316.257000</v>
+        <v>-316.25700000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>15631.274569</v>
+        <v>15631.274568999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.342021</v>
+        <v>4.3420209999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1209.330000</v>
+        <v>1209.33</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-503.176000</v>
+        <v>-503.17599999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>15642.116264</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.345032</v>
+        <v>4.3450319999999998</v>
       </c>
       <c r="BU9" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="BV9" s="1">
-        <v>-708.547000</v>
+        <v>-708.54700000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>15652.802075</v>
@@ -2505,497 +2921,497 @@
         <v>4.348001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1469.500000</v>
+        <v>1469.5</v>
       </c>
       <c r="CA9" s="1">
-        <v>-928.271000</v>
+        <v>-928.27099999999996</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>15664.405491</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.351224</v>
+        <v>4.3512240000000002</v>
       </c>
       <c r="CE9" s="1">
-        <v>1831.810000</v>
+        <v>1831.81</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1449.280000</v>
+        <v>-1449.28</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>15492.164254</v>
+        <v>15492.164253999999</v>
       </c>
       <c r="B10" s="1">
-        <v>4.303379</v>
+        <v>4.3033789999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>897.006000</v>
+        <v>897.00599999999997</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.751000</v>
+        <v>-200.751</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>15502.591152</v>
+        <v>15502.591152000001</v>
       </c>
       <c r="G10" s="1">
-        <v>4.306275</v>
+        <v>4.3062750000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>914.747000</v>
+        <v>914.74699999999996</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.094000</v>
+        <v>-169.09399999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>15513.044339</v>
       </c>
       <c r="L10" s="1">
-        <v>4.309179</v>
+        <v>4.3091790000000003</v>
       </c>
       <c r="M10" s="1">
-        <v>937.209000</v>
+        <v>937.20899999999995</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.376000</v>
+        <v>-119.376</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>15523.555061</v>
+        <v>15523.555060999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.312099</v>
+        <v>4.3120989999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>943.826000</v>
+        <v>943.82600000000002</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.358000</v>
+        <v>-103.358</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>15534.464566</v>
+        <v>15534.464566000001</v>
       </c>
       <c r="V10" s="1">
-        <v>4.315129</v>
+        <v>4.3151289999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>950.091000</v>
+        <v>950.09100000000001</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.287500</v>
+        <v>-88.287499999999994</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>15544.999096</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.318055</v>
+        <v>4.3180550000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>957.055000</v>
+        <v>957.05499999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.871800</v>
+        <v>-76.871799999999993</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>15555.481563</v>
+        <v>15555.481562999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.320967</v>
+        <v>4.3209669999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>961.714000</v>
+        <v>961.71400000000006</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.846100</v>
+        <v>-74.846100000000007</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>15565.895549</v>
+        <v>15565.895549000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.323860</v>
+        <v>4.3238599999999998</v>
       </c>
       <c r="AL10" s="1">
-        <v>968.833000</v>
+        <v>968.83299999999997</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.761000</v>
+        <v>-79.760999999999996</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>15576.585327</v>
+        <v>15576.585327000001</v>
       </c>
       <c r="AP10" s="1">
         <v>4.326829</v>
       </c>
       <c r="AQ10" s="1">
-        <v>976.920000</v>
+        <v>976.92</v>
       </c>
       <c r="AR10" s="1">
-        <v>-91.570400</v>
+        <v>-91.570400000000006</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>15587.600976</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.329889</v>
+        <v>4.3298889999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>986.794000</v>
+        <v>986.79399999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-109.499000</v>
+        <v>-109.499</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>15598.655841</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.332960</v>
+        <v>4.3329599999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>995.074000</v>
+        <v>995.07399999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-125.316000</v>
+        <v>-125.316</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
         <v>15609.695301</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.336026</v>
+        <v>4.3360260000000004</v>
       </c>
       <c r="BF10" s="1">
-        <v>1033.840000</v>
+        <v>1033.8399999999999</v>
       </c>
       <c r="BG10" s="1">
-        <v>-198.017000</v>
+        <v>-198.017</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>15620.732244</v>
+        <v>15620.732244000001</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.339092</v>
+        <v>4.3390919999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1100.640000</v>
+        <v>1100.6400000000001</v>
       </c>
       <c r="BL10" s="1">
-        <v>-316.307000</v>
+        <v>-316.30700000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>15631.672006</v>
+        <v>15631.672006000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.342131</v>
+        <v>4.3421310000000002</v>
       </c>
       <c r="BP10" s="1">
-        <v>1209.290000</v>
+        <v>1209.29</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-503.150000</v>
+        <v>-503.15</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>15642.529955</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.345147</v>
+        <v>4.3451469999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="BV10" s="1">
-        <v>-708.495000</v>
+        <v>-708.495</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>15653.564425</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.348212</v>
+        <v>4.3482120000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA10" s="1">
-        <v>-928.265000</v>
+        <v>-928.26499999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>15665.241241</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.351456</v>
+        <v>4.3514559999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1832.220000</v>
+        <v>1832.22</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1450.970000</v>
+        <v>-1450.97</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>15492.508516</v>
       </c>
       <c r="B11" s="1">
-        <v>4.303475</v>
+        <v>4.3034749999999997</v>
       </c>
       <c r="C11" s="1">
-        <v>896.810000</v>
+        <v>896.81</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.780000</v>
+        <v>-200.78</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>15502.938352</v>
+        <v>15502.938351999999</v>
       </c>
       <c r="G11" s="1">
-        <v>4.306372</v>
+        <v>4.3063719999999996</v>
       </c>
       <c r="H11" s="1">
-        <v>914.903000</v>
+        <v>914.90300000000002</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.570000</v>
+        <v>-169.57</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>15513.392574</v>
       </c>
       <c r="L11" s="1">
-        <v>4.309276</v>
+        <v>4.3092759999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>937.287000</v>
+        <v>937.28700000000003</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.928000</v>
+        <v>-119.928</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>15523.980132</v>
+        <v>15523.980132000001</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.312217</v>
+        <v>4.3122170000000004</v>
       </c>
       <c r="R11" s="1">
-        <v>943.854000</v>
+        <v>943.85400000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.386000</v>
+        <v>-103.386</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>15534.810278</v>
+        <v>15534.810278000001</v>
       </c>
       <c r="V11" s="1">
-        <v>4.315225</v>
+        <v>4.3152249999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>950.161000</v>
+        <v>950.16099999999994</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.326000</v>
+        <v>-88.325999999999993</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>15545.283304</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.318134</v>
+        <v>4.3181339999999997</v>
       </c>
       <c r="AB11" s="1">
-        <v>956.981000</v>
+        <v>956.98099999999999</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.871000</v>
+        <v>-76.870999999999995</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>15555.825770</v>
+        <v>15555.825769999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.321063</v>
+        <v>4.3210629999999997</v>
       </c>
       <c r="AG11" s="1">
-        <v>961.653000</v>
+        <v>961.65300000000002</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.819500</v>
+        <v>-74.819500000000005</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>15566.243244</v>
+        <v>15566.243243999999</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.323956</v>
+        <v>4.3239559999999999</v>
       </c>
       <c r="AL11" s="1">
-        <v>968.814000</v>
+        <v>968.81399999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.740100</v>
+        <v>-79.740099999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>15576.948436</v>
+        <v>15576.948436000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.326930</v>
+        <v>4.3269299999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>976.900000</v>
+        <v>976.9</v>
       </c>
       <c r="AR11" s="1">
-        <v>-91.567800</v>
+        <v>-91.567800000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>15588.334064</v>
+        <v>15588.334064000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.330093</v>
+        <v>4.3300929999999997</v>
       </c>
       <c r="AV11" s="1">
-        <v>986.772000</v>
+        <v>986.77200000000005</v>
       </c>
       <c r="AW11" s="1">
-        <v>-109.533000</v>
+        <v>-109.533</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>15599.379472</v>
+        <v>15599.379472000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.333161</v>
+        <v>4.3331609999999996</v>
       </c>
       <c r="BA11" s="1">
-        <v>995.064000</v>
+        <v>995.06399999999996</v>
       </c>
       <c r="BB11" s="1">
-        <v>-125.327000</v>
+        <v>-125.327</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>15610.054405</v>
+        <v>15610.054405000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.336126</v>
+        <v>4.3361260000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG11" s="1">
-        <v>-198.050000</v>
+        <v>-198.05</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>15621.108953</v>
+        <v>15621.108953000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.339197</v>
+        <v>4.3391970000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1100.630000</v>
+        <v>1100.6300000000001</v>
       </c>
       <c r="BL11" s="1">
-        <v>-316.229000</v>
+        <v>-316.22899999999998</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>15632.090630</v>
+        <v>15632.090630000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.342247</v>
+        <v>4.3422470000000004</v>
       </c>
       <c r="BP11" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-503.172000</v>
+        <v>-503.17200000000003</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
         <v>15643.240383</v>
@@ -3004,377 +3420,377 @@
         <v>4.345345</v>
       </c>
       <c r="BU11" s="1">
-        <v>1331.820000</v>
+        <v>1331.82</v>
       </c>
       <c r="BV11" s="1">
-        <v>-708.560000</v>
+        <v>-708.56</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>15653.681021</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.348245</v>
+        <v>4.3482450000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA11" s="1">
-        <v>-928.265000</v>
+        <v>-928.26499999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>15665.445098</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.351513</v>
+        <v>4.3515129999999997</v>
       </c>
       <c r="CE11" s="1">
-        <v>1833.530000</v>
+        <v>1833.53</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1450.340000</v>
+        <v>-1450.34</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
         <v>15492.852701</v>
       </c>
       <c r="B12" s="1">
-        <v>4.303570</v>
+        <v>4.3035699999999997</v>
       </c>
       <c r="C12" s="1">
-        <v>897.127000</v>
+        <v>897.12699999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-200.723000</v>
+        <v>-200.72300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>15503.363457</v>
+        <v>15503.363456999999</v>
       </c>
       <c r="G12" s="1">
-        <v>4.306490</v>
+        <v>4.3064900000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>914.497000</v>
+        <v>914.49699999999996</v>
       </c>
       <c r="I12" s="1">
-        <v>-169.894000</v>
+        <v>-169.89400000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>15513.812642</v>
+        <v>15513.812642000001</v>
       </c>
       <c r="L12" s="1">
-        <v>4.309392</v>
+        <v>4.3093919999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>937.267000</v>
+        <v>937.26700000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.906000</v>
+        <v>-119.90600000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>15524.259876</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.312294</v>
+        <v>4.3122939999999996</v>
       </c>
       <c r="R12" s="1">
-        <v>943.882000</v>
+        <v>943.88199999999995</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.412000</v>
+        <v>-103.41200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>15535.157478</v>
+        <v>15535.157477999999</v>
       </c>
       <c r="V12" s="1">
-        <v>4.315322</v>
+        <v>4.3153220000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>950.139000</v>
+        <v>950.13900000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.422700</v>
+        <v>-88.422700000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>15545.631032</v>
+        <v>15545.631031999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.318231</v>
+        <v>4.3182309999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>957.058000</v>
+        <v>957.05799999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.816600</v>
+        <v>-76.816599999999994</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>15556.168508</v>
+        <v>15556.168508000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.321158</v>
+        <v>4.3211579999999996</v>
       </c>
       <c r="AG12" s="1">
-        <v>961.673000</v>
+        <v>961.673</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.828000</v>
+        <v>-74.828000000000003</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>15566.595901</v>
+        <v>15566.595901000001</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.324054</v>
+        <v>4.3240540000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>968.818000</v>
+        <v>968.81799999999998</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.738200</v>
+        <v>-79.738200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>15577.675533</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.327132</v>
+        <v>4.3271319999999998</v>
       </c>
       <c r="AQ12" s="1">
-        <v>976.917000</v>
+        <v>976.91700000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-91.570300</v>
+        <v>-91.570300000000003</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>15588.717007</v>
+        <v>15588.717006999999</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.330199</v>
+        <v>4.3301990000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>986.768000</v>
+        <v>986.76800000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-109.547000</v>
+        <v>-109.547</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>15599.754944</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4.333265</v>
+        <v>4.3332649999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>995.079000</v>
+        <v>995.07899999999995</v>
       </c>
       <c r="BB12" s="1">
-        <v>-125.317000</v>
+        <v>-125.31699999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>15610.414962</v>
+        <v>15610.414962000001</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.336226</v>
+        <v>4.3362259999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1033.860000</v>
+        <v>1033.8599999999999</v>
       </c>
       <c r="BG12" s="1">
-        <v>-198.052000</v>
+        <v>-198.05199999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>15621.794179</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.339387</v>
+        <v>4.3393870000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1100.650000</v>
+        <v>1100.6500000000001</v>
       </c>
       <c r="BL12" s="1">
-        <v>-316.303000</v>
+        <v>-316.303</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>15632.794988</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.342443</v>
+        <v>4.3424430000000003</v>
       </c>
       <c r="BP12" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-503.187000</v>
+        <v>-503.18700000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>15643.358743</v>
+        <v>15643.358743000001</v>
       </c>
       <c r="BT12" s="1">
         <v>4.345377</v>
       </c>
       <c r="BU12" s="1">
-        <v>1331.830000</v>
+        <v>1331.83</v>
       </c>
       <c r="BV12" s="1">
-        <v>-708.505000</v>
+        <v>-708.505</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>15654.109563</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.348364</v>
+        <v>4.3483640000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1469.600000</v>
+        <v>1469.6</v>
       </c>
       <c r="CA12" s="1">
-        <v>-928.219000</v>
+        <v>-928.21900000000005</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>15665.958458</v>
+        <v>15665.958457999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.351655</v>
+        <v>4.3516550000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1832.870000</v>
+        <v>1832.87</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1449.370000</v>
+        <v>-1449.37</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>15493.277773</v>
       </c>
       <c r="B13" s="1">
-        <v>4.303688</v>
+        <v>4.3036880000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>897.164000</v>
+        <v>897.16399999999999</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.640000</v>
+        <v>-200.64</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
         <v>15503.643167</v>
       </c>
       <c r="G13" s="1">
-        <v>4.306568</v>
+        <v>4.3065680000000004</v>
       </c>
       <c r="H13" s="1">
-        <v>914.546000</v>
+        <v>914.54600000000005</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.332000</v>
+        <v>-169.33199999999999</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>15514.091393</v>
+        <v>15514.091393000001</v>
       </c>
       <c r="L13" s="1">
-        <v>4.309470</v>
+        <v>4.3094700000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>937.357000</v>
+        <v>937.35699999999997</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.842000</v>
+        <v>-119.842</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>15524.607572</v>
+        <v>15524.607572000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.312391</v>
+        <v>4.3123909999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>943.851000</v>
+        <v>943.851</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.428000</v>
+        <v>-103.428</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>15535.499908</v>
       </c>
       <c r="V13" s="1">
-        <v>4.315417</v>
+        <v>4.3154170000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>950.207000</v>
+        <v>950.20699999999999</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.326100</v>
+        <v>-88.326099999999997</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>15545.977703</v>
@@ -3383,118 +3799,118 @@
         <v>4.318327</v>
       </c>
       <c r="AB13" s="1">
-        <v>957.012000</v>
+        <v>957.01199999999994</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.851500</v>
+        <v>-76.851500000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>15556.851497</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.321348</v>
+        <v>4.3213480000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>961.660000</v>
+        <v>961.66</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.764800</v>
+        <v>-74.764799999999994</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>15567.288315</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.324247</v>
+        <v>4.3242469999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>968.824000</v>
+        <v>968.82399999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.747100</v>
+        <v>-79.747100000000003</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>15578.052029</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.327237</v>
+        <v>4.3272370000000002</v>
       </c>
       <c r="AQ13" s="1">
-        <v>976.923000</v>
+        <v>976.923</v>
       </c>
       <c r="AR13" s="1">
-        <v>-91.544800</v>
+        <v>-91.544799999999995</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
         <v>15589.080542</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.330300</v>
+        <v>4.3303000000000003</v>
       </c>
       <c r="AV13" s="1">
-        <v>986.777000</v>
+        <v>986.77700000000004</v>
       </c>
       <c r="AW13" s="1">
-        <v>-109.544000</v>
+        <v>-109.544</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>15600.144069</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.333373</v>
+        <v>4.3333729999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>995.089000</v>
+        <v>995.08900000000006</v>
       </c>
       <c r="BB13" s="1">
-        <v>-125.311000</v>
+        <v>-125.31100000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>15611.090513</v>
+        <v>15611.090512999999</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.336414</v>
+        <v>4.3364140000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1033.840000</v>
+        <v>1033.8399999999999</v>
       </c>
       <c r="BG13" s="1">
-        <v>-198.052000</v>
+        <v>-198.05199999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>15622.235618</v>
+        <v>15622.235618000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.339510</v>
+        <v>4.3395099999999998</v>
       </c>
       <c r="BK13" s="1">
-        <v>1100.640000</v>
+        <v>1100.6400000000001</v>
       </c>
       <c r="BL13" s="1">
-        <v>-316.253000</v>
+        <v>-316.25299999999999</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>15632.925894</v>
@@ -3503,180 +3919,180 @@
         <v>4.342479</v>
       </c>
       <c r="BP13" s="1">
-        <v>1209.320000</v>
+        <v>1209.32</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-503.191000</v>
+        <v>-503.19099999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>15643.796710</v>
+        <v>15643.796710000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>4.345499</v>
+        <v>4.3454990000000002</v>
       </c>
       <c r="BU13" s="1">
-        <v>1331.830000</v>
+        <v>1331.83</v>
       </c>
       <c r="BV13" s="1">
-        <v>-708.536000</v>
+        <v>-708.53599999999994</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>15654.527160</v>
+        <v>15654.52716</v>
       </c>
       <c r="BY13" s="1">
-        <v>4.348480</v>
+        <v>4.3484800000000003</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1469.530000</v>
+        <v>1469.53</v>
       </c>
       <c r="CA13" s="1">
-        <v>-928.251000</v>
+        <v>-928.25099999999998</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>15666.543240</v>
+        <v>15666.543240000001</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.351818</v>
+        <v>4.3518179999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>1832.100000</v>
+        <v>1832.1</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1449.640000</v>
+        <v>-1449.64</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>15493.552588</v>
       </c>
       <c r="B14" s="1">
-        <v>4.303765</v>
+        <v>4.3037650000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>897.042000</v>
+        <v>897.04200000000003</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.678000</v>
+        <v>-200.678</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>15503.985970</v>
+        <v>15503.98597</v>
       </c>
       <c r="G14" s="1">
-        <v>4.306663</v>
+        <v>4.3066630000000004</v>
       </c>
       <c r="H14" s="1">
-        <v>914.387000</v>
+        <v>914.38699999999994</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.482000</v>
+        <v>-169.482</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>15514.437105</v>
+        <v>15514.437105000001</v>
       </c>
       <c r="L14" s="1">
-        <v>4.309566</v>
+        <v>4.3095660000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>937.300000</v>
+        <v>937.3</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.906000</v>
+        <v>-119.90600000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>15524.955267</v>
+        <v>15524.955266999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.312488</v>
+        <v>4.3124880000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>943.840000</v>
+        <v>943.84</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.410000</v>
+        <v>-103.41</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>15536.187208</v>
+        <v>15536.187207999999</v>
       </c>
       <c r="V14" s="1">
-        <v>4.315608</v>
+        <v>4.3156080000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>950.142000</v>
+        <v>950.14200000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.392800</v>
+        <v>-88.392799999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>15546.674098</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.318521</v>
+        <v>4.3185209999999996</v>
       </c>
       <c r="AB14" s="1">
-        <v>957.082000</v>
+        <v>957.08199999999999</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.922900</v>
+        <v>-76.922899999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>15557.195721</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.321443</v>
+        <v>4.3214430000000004</v>
       </c>
       <c r="AG14" s="1">
-        <v>961.637000</v>
+        <v>961.63699999999994</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.797000</v>
+        <v>-74.796999999999997</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>15567.637995</v>
+        <v>15567.637994999999</v>
       </c>
       <c r="AK14" s="1">
         <v>4.324344</v>
       </c>
       <c r="AL14" s="1">
-        <v>968.817000</v>
+        <v>968.81700000000001</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.762400</v>
+        <v>-79.7624</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>15578.413085</v>
@@ -3685,542 +4101,542 @@
         <v>4.327337</v>
       </c>
       <c r="AQ14" s="1">
-        <v>976.905000</v>
+        <v>976.90499999999997</v>
       </c>
       <c r="AR14" s="1">
-        <v>-91.558100</v>
+        <v>-91.558099999999996</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>15589.763565</v>
+        <v>15589.763564999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.330490</v>
+        <v>4.3304900000000002</v>
       </c>
       <c r="AV14" s="1">
-        <v>986.790000</v>
+        <v>986.79</v>
       </c>
       <c r="AW14" s="1">
-        <v>-109.545000</v>
+        <v>-109.545</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>15600.581776</v>
+        <v>15600.581776000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.333495</v>
+        <v>4.3334950000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>995.077000</v>
+        <v>995.077</v>
       </c>
       <c r="BB14" s="1">
-        <v>-125.313000</v>
+        <v>-125.313</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>15611.529509</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.336536</v>
+        <v>4.3365359999999997</v>
       </c>
       <c r="BF14" s="1">
-        <v>1033.860000</v>
+        <v>1033.8599999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-198.060000</v>
+        <v>-198.06</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>15622.612578</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.339615</v>
+        <v>4.3396150000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1100.690000</v>
+        <v>1100.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-316.294000</v>
+        <v>-316.29399999999998</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>15633.335129</v>
+        <v>15633.335128999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.342593</v>
+        <v>4.3425929999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-503.176000</v>
+        <v>-503.17599999999999</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>15644.210375</v>
+        <v>15644.210375000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.345614</v>
+        <v>4.3456140000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1331.810000</v>
+        <v>1331.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-708.583000</v>
+        <v>-708.58299999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>15654.976071</v>
+        <v>15654.976070999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.348604</v>
+        <v>4.3486039999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1469.440000</v>
+        <v>1469.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-928.374000</v>
+        <v>-928.37400000000002</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>15666.993609</v>
+        <v>15666.993608999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.351943</v>
+        <v>4.3519430000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1832.060000</v>
+        <v>1832.06</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1449.470000</v>
+        <v>-1449.47</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>15493.894333</v>
       </c>
       <c r="B15" s="1">
-        <v>4.303860</v>
+        <v>4.3038600000000002</v>
       </c>
       <c r="C15" s="1">
-        <v>896.992000</v>
+        <v>896.99199999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.735000</v>
+        <v>-200.73500000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
         <v>15504.331156</v>
       </c>
       <c r="G15" s="1">
-        <v>4.306759</v>
+        <v>4.3067589999999996</v>
       </c>
       <c r="H15" s="1">
-        <v>914.337000</v>
+        <v>914.33699999999999</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.229000</v>
+        <v>-169.22900000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>15514.782816</v>
+        <v>15514.782816000001</v>
       </c>
       <c r="L15" s="1">
-        <v>4.309662</v>
+        <v>4.3096620000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>937.297000</v>
+        <v>937.29700000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.701000</v>
+        <v>-119.70099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>15525.656146</v>
+        <v>15525.656145999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>4.312682</v>
+        <v>4.3126819999999997</v>
       </c>
       <c r="R15" s="1">
-        <v>943.851000</v>
+        <v>943.851</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.360000</v>
+        <v>-103.36</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>15536.533380</v>
+        <v>15536.533380000001</v>
       </c>
       <c r="V15" s="1">
-        <v>4.315704</v>
+        <v>4.3157040000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>950.133000</v>
+        <v>950.13300000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.322900</v>
+        <v>-88.322900000000004</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15547.023270</v>
+        <v>15547.02327</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.318618</v>
+        <v>4.3186179999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>957.082000</v>
+        <v>957.08199999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.854500</v>
+        <v>-76.854500000000002</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>15557.538984</v>
+        <v>15557.538984000001</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.321539</v>
+        <v>4.3215389999999996</v>
       </c>
       <c r="AG15" s="1">
-        <v>961.672000</v>
+        <v>961.67200000000003</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.799400</v>
+        <v>-74.799400000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>15568.298666</v>
+        <v>15568.298666000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.324527</v>
+        <v>4.3245269999999998</v>
       </c>
       <c r="AL15" s="1">
-        <v>968.801000</v>
+        <v>968.80100000000004</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.745400</v>
+        <v>-79.745400000000004</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>15579.071805</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.327520</v>
+        <v>4.3275199999999998</v>
       </c>
       <c r="AQ15" s="1">
-        <v>976.917000</v>
+        <v>976.91700000000003</v>
       </c>
       <c r="AR15" s="1">
-        <v>-91.561100</v>
+        <v>-91.561099999999996</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>15590.201501</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.330612</v>
+        <v>4.3306120000000004</v>
       </c>
       <c r="AV15" s="1">
-        <v>986.771000</v>
+        <v>986.77099999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-109.552000</v>
+        <v>-109.55200000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>15600.863998</v>
+        <v>15600.863998000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.333573</v>
+        <v>4.3335730000000003</v>
       </c>
       <c r="BA15" s="1">
-        <v>995.092000</v>
+        <v>995.09199999999998</v>
       </c>
       <c r="BB15" s="1">
-        <v>-125.303000</v>
+        <v>-125.303</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>15611.889110</v>
+        <v>15611.88911</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.336636</v>
+        <v>4.3366360000000004</v>
       </c>
       <c r="BF15" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG15" s="1">
-        <v>-198.049000</v>
+        <v>-198.04900000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>15622.987586</v>
+        <v>15622.987585999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.339719</v>
+        <v>4.3397189999999997</v>
       </c>
       <c r="BK15" s="1">
-        <v>1100.590000</v>
+        <v>1100.5899999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-316.297000</v>
+        <v>-316.29700000000003</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>15633.757205</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.342710</v>
+        <v>4.3427100000000003</v>
       </c>
       <c r="BP15" s="1">
-        <v>1209.310000</v>
+        <v>1209.31</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-503.203000</v>
+        <v>-503.20299999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>15644.629989</v>
+        <v>15644.629988999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.345731</v>
+        <v>4.3457309999999998</v>
       </c>
       <c r="BU15" s="1">
-        <v>1331.810000</v>
+        <v>1331.81</v>
       </c>
       <c r="BV15" s="1">
-        <v>-708.562000</v>
+        <v>-708.56200000000001</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>15655.394168</v>
+        <v>15655.394168000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.348721</v>
+        <v>4.3487210000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1469.580000</v>
+        <v>1469.58</v>
       </c>
       <c r="CA15" s="1">
-        <v>-928.315000</v>
+        <v>-928.31500000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>15667.547179</v>
+        <v>15667.547178999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.352096</v>
+        <v>4.3520960000000004</v>
       </c>
       <c r="CE15" s="1">
-        <v>1832.890000</v>
+        <v>1832.89</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1449.210000</v>
+        <v>-1449.21</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>15494.237532</v>
+        <v>15494.237531999999</v>
       </c>
       <c r="B16" s="1">
-        <v>4.303955</v>
+        <v>4.3039550000000002</v>
       </c>
       <c r="C16" s="1">
-        <v>896.938000</v>
+        <v>896.93799999999999</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.591000</v>
+        <v>-200.59100000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>15505.020559</v>
+        <v>15505.020559000001</v>
       </c>
       <c r="G16" s="1">
-        <v>4.306950</v>
+        <v>4.3069499999999996</v>
       </c>
       <c r="H16" s="1">
-        <v>914.651000</v>
+        <v>914.65099999999995</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.309000</v>
+        <v>-169.309</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>15515.476256</v>
       </c>
       <c r="L16" s="1">
-        <v>4.309855</v>
+        <v>4.3098549999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>937.409000</v>
+        <v>937.40899999999999</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.871000</v>
+        <v>-119.871</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>15526.003809</v>
       </c>
       <c r="Q16" s="1">
-        <v>4.312779</v>
+        <v>4.3127789999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>943.843000</v>
+        <v>943.84299999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.339000</v>
+        <v>-103.339</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>15536.873139</v>
+        <v>15536.873138999999</v>
       </c>
       <c r="V16" s="1">
         <v>4.315798</v>
       </c>
       <c r="W16" s="1">
-        <v>950.215000</v>
+        <v>950.21500000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.327900</v>
+        <v>-88.3279</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>15547.374464</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.318715</v>
+        <v>4.3187150000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>957.021000</v>
+        <v>957.02099999999996</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.856800</v>
+        <v>-76.856800000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>15558.193673</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.321720</v>
+        <v>4.32172</v>
       </c>
       <c r="AG16" s="1">
-        <v>961.677000</v>
+        <v>961.67700000000002</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.809700</v>
+        <v>-74.809700000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>15568.683066</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.324634</v>
+        <v>4.3246339999999996</v>
       </c>
       <c r="AL16" s="1">
-        <v>968.827000</v>
+        <v>968.827</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.779000</v>
+        <v>-79.778999999999996</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>15579.492876</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.327637</v>
+        <v>4.3276370000000002</v>
       </c>
       <c r="AQ16" s="1">
-        <v>976.885000</v>
+        <v>976.88499999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-91.552000</v>
+        <v>-91.552000000000007</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>15590.566557</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.330713</v>
+        <v>4.3307130000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>986.772000</v>
+        <v>986.77200000000005</v>
       </c>
       <c r="AW16" s="1">
-        <v>-109.535000</v>
+        <v>-109.535</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>15601.219663</v>
@@ -4229,106 +4645,106 @@
         <v>4.333672</v>
       </c>
       <c r="BA16" s="1">
-        <v>995.091000</v>
+        <v>995.09100000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-125.304000</v>
+        <v>-125.304</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>15612.250192</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.336736</v>
+        <v>4.3367360000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1033.830000</v>
+        <v>1033.83</v>
       </c>
       <c r="BG16" s="1">
-        <v>-198.054000</v>
+        <v>-198.054</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>15623.404690</v>
+        <v>15623.404689999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.339835</v>
+        <v>4.3398349999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1100.630000</v>
+        <v>1100.6300000000001</v>
       </c>
       <c r="BL16" s="1">
-        <v>-316.279000</v>
+        <v>-316.279</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>15634.149027</v>
+        <v>15634.149026999999</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.342819</v>
+        <v>4.3428190000000004</v>
       </c>
       <c r="BP16" s="1">
-        <v>1209.290000</v>
+        <v>1209.29</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-503.201000</v>
+        <v>-503.20100000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>15645.043189</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.345845</v>
+        <v>4.3458449999999997</v>
       </c>
       <c r="BU16" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="BV16" s="1">
-        <v>-708.508000</v>
+        <v>-708.50800000000004</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>15655.819240</v>
+        <v>15655.819240000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.348839</v>
+        <v>4.3488389999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1469.550000</v>
+        <v>1469.55</v>
       </c>
       <c r="CA16" s="1">
-        <v>-928.204000</v>
+        <v>-928.20399999999995</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>15668.076405</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.352243</v>
+        <v>4.3522429999999996</v>
       </c>
       <c r="CE16" s="1">
-        <v>1831.940000</v>
+        <v>1831.94</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1449.740000</v>
+        <v>-1449.74</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>15494.920027</v>
       </c>
@@ -4336,285 +4752,285 @@
         <v>4.304144</v>
       </c>
       <c r="C17" s="1">
-        <v>896.945000</v>
+        <v>896.94500000000005</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.723000</v>
+        <v>-200.72300000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>15505.367757</v>
       </c>
       <c r="G17" s="1">
-        <v>4.307047</v>
+        <v>4.3070469999999998</v>
       </c>
       <c r="H17" s="1">
-        <v>914.483000</v>
+        <v>914.48299999999995</v>
       </c>
       <c r="I17" s="1">
-        <v>-169.404000</v>
+        <v>-169.404</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>15515.824415</v>
+        <v>15515.824414999999</v>
       </c>
       <c r="L17" s="1">
-        <v>4.309951</v>
+        <v>4.3099509999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>937.298000</v>
+        <v>937.298</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.055000</v>
+        <v>-120.05500000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>15526.350513</v>
+        <v>15526.350512999999</v>
       </c>
       <c r="Q17" s="1">
         <v>4.312875</v>
       </c>
       <c r="R17" s="1">
-        <v>943.903000</v>
+        <v>943.90300000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.381000</v>
+        <v>-103.381</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>15537.521439</v>
       </c>
       <c r="V17" s="1">
-        <v>4.315978</v>
+        <v>4.3159780000000003</v>
       </c>
       <c r="W17" s="1">
-        <v>950.153000</v>
+        <v>950.15300000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.413000</v>
+        <v>-88.412999999999997</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>15548.033124</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.318898</v>
+        <v>4.3188979999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>957.029000</v>
+        <v>957.029</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.847600</v>
+        <v>-76.8476</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>15558.571656</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.321825</v>
+        <v>4.3218249999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>961.635000</v>
+        <v>961.63499999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.813400</v>
+        <v>-74.813400000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>15569.030270</v>
+        <v>15569.030269999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.324731</v>
+        <v>4.3247309999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>968.822000</v>
+        <v>968.822</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.752900</v>
+        <v>-79.752899999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>15579.876810</v>
+        <v>15579.87681</v>
       </c>
       <c r="AP17" s="1">
         <v>4.327744</v>
       </c>
       <c r="AQ17" s="1">
-        <v>976.920000</v>
+        <v>976.92</v>
       </c>
       <c r="AR17" s="1">
-        <v>-91.557300</v>
+        <v>-91.557299999999998</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>15590.928643</v>
+        <v>15590.928642999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.330814</v>
+        <v>4.3308140000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>986.777000</v>
+        <v>986.77700000000004</v>
       </c>
       <c r="AW17" s="1">
-        <v>-109.547000</v>
+        <v>-109.547</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>15601.634317</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.333787</v>
+        <v>4.3337870000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>995.080000</v>
+        <v>995.08</v>
       </c>
       <c r="BB17" s="1">
-        <v>-125.312000</v>
+        <v>-125.312</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>15612.669775</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.336853</v>
+        <v>4.3368529999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG17" s="1">
-        <v>-198.033000</v>
+        <v>-198.03299999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>15623.756848</v>
+        <v>15623.756848000001</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.339932</v>
+        <v>4.3399320000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1100.680000</v>
+        <v>1100.68</v>
       </c>
       <c r="BL17" s="1">
-        <v>-316.280000</v>
+        <v>-316.27999999999997</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>15634.551282</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.342931</v>
+        <v>4.3429310000000001</v>
       </c>
       <c r="BP17" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-503.182000</v>
+        <v>-503.18200000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>15645.454837</v>
+        <v>15645.454836999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.345960</v>
+        <v>4.3459599999999998</v>
       </c>
       <c r="BU17" s="1">
-        <v>1331.870000</v>
+        <v>1331.87</v>
       </c>
       <c r="BV17" s="1">
-        <v>-708.479000</v>
+        <v>-708.47900000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>15656.267157</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.348963</v>
+        <v>4.3489630000000004</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1469.570000</v>
+        <v>1469.57</v>
       </c>
       <c r="CA17" s="1">
-        <v>-928.299000</v>
+        <v>-928.29899999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>15668.595222</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.352388</v>
+        <v>4.3523880000000004</v>
       </c>
       <c r="CE17" s="1">
-        <v>1833.240000</v>
+        <v>1833.24</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1451.030000</v>
+        <v>-1451.03</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>15495.262764</v>
+        <v>15495.262763999999</v>
       </c>
       <c r="B18" s="1">
-        <v>4.304240</v>
+        <v>4.3042400000000001</v>
       </c>
       <c r="C18" s="1">
-        <v>896.946000</v>
+        <v>896.94600000000003</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.687000</v>
+        <v>-200.68700000000001</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>15505.718428</v>
       </c>
       <c r="G18" s="1">
-        <v>4.307144</v>
+        <v>4.3071440000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>914.340000</v>
+        <v>914.34</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.301000</v>
+        <v>-169.30099999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>15516.169136</v>
@@ -4623,405 +5039,405 @@
         <v>4.310047</v>
       </c>
       <c r="M18" s="1">
-        <v>937.312000</v>
+        <v>937.31200000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.851000</v>
+        <v>-119.851</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>15527.004770</v>
+        <v>15527.00477</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.313057</v>
+        <v>4.3130569999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>943.841000</v>
+        <v>943.84100000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.429000</v>
+        <v>-103.429</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>15537.904818</v>
+        <v>15537.904818000001</v>
       </c>
       <c r="V18" s="1">
-        <v>4.316085</v>
+        <v>4.3160850000000002</v>
       </c>
       <c r="W18" s="1">
-        <v>950.120000</v>
+        <v>950.12</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.365000</v>
+        <v>-88.364999999999995</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>15548.420041</v>
+        <v>15548.420040999999</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.319006</v>
+        <v>4.3190059999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>957.155000</v>
+        <v>957.15499999999997</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.845000</v>
+        <v>-76.844999999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>15558.914412</v>
       </c>
       <c r="AF18" s="1">
-        <v>4.321921</v>
+        <v>4.3219209999999997</v>
       </c>
       <c r="AG18" s="1">
-        <v>961.672000</v>
+        <v>961.67200000000003</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.800200</v>
+        <v>-74.800200000000004</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>15569.380196</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.324828</v>
+        <v>4.3248280000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>968.845000</v>
+        <v>968.84500000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.759400</v>
+        <v>-79.759399999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>15580.235418</v>
       </c>
       <c r="AP18" s="1">
-        <v>4.327843</v>
+        <v>4.3278429999999997</v>
       </c>
       <c r="AQ18" s="1">
-        <v>976.920000</v>
+        <v>976.92</v>
       </c>
       <c r="AR18" s="1">
-        <v>-91.586600</v>
+        <v>-91.586600000000004</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>15591.351723</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.330931</v>
+        <v>4.3309309999999996</v>
       </c>
       <c r="AV18" s="1">
-        <v>986.807000</v>
+        <v>986.80700000000002</v>
       </c>
       <c r="AW18" s="1">
-        <v>-109.535000</v>
+        <v>-109.535</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>15601.936877</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.333871</v>
+        <v>4.3338710000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>995.096000</v>
+        <v>995.096</v>
       </c>
       <c r="BB18" s="1">
-        <v>-125.311000</v>
+        <v>-125.31100000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
         <v>15612.973328</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.336937</v>
+        <v>4.3369369999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1033.830000</v>
+        <v>1033.83</v>
       </c>
       <c r="BG18" s="1">
-        <v>-198.053000</v>
+        <v>-198.053</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>15624.133317</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.340037</v>
+        <v>4.3400369999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1100.650000</v>
+        <v>1100.6500000000001</v>
       </c>
       <c r="BL18" s="1">
-        <v>-316.314000</v>
+        <v>-316.31400000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>15634.971394</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.343048</v>
+        <v>4.3430479999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-503.186000</v>
+        <v>-503.18599999999998</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>15645.868035</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.346074</v>
+        <v>4.3460739999999998</v>
       </c>
       <c r="BU18" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="BV18" s="1">
-        <v>-708.575000</v>
+        <v>-708.57500000000005</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>15656.695670</v>
+        <v>15656.695669999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.349082</v>
+        <v>4.3490820000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1469.600000</v>
+        <v>1469.6</v>
       </c>
       <c r="CA18" s="1">
-        <v>-928.146000</v>
+        <v>-928.14599999999996</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>15669.136324</v>
+        <v>15669.136323999999</v>
       </c>
       <c r="CD18" s="1">
         <v>4.352538</v>
       </c>
       <c r="CE18" s="1">
-        <v>1832.350000</v>
+        <v>1832.35</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1449.350000</v>
+        <v>-1449.35</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>15495.601066</v>
+        <v>15495.601065999999</v>
       </c>
       <c r="B19" s="1">
-        <v>4.304334</v>
+        <v>4.3043339999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>897.000000</v>
+        <v>897</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.697000</v>
+        <v>-200.697</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>15506.369180</v>
+        <v>15506.36918</v>
       </c>
       <c r="G19" s="1">
-        <v>4.307325</v>
+        <v>4.3073249999999996</v>
       </c>
       <c r="H19" s="1">
-        <v>914.581000</v>
+        <v>914.58100000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.281000</v>
+        <v>-169.28100000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>15516.835758</v>
+        <v>15516.835757999999</v>
       </c>
       <c r="L19" s="1">
-        <v>4.310232</v>
+        <v>4.3102320000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>937.131000</v>
+        <v>937.13099999999997</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.750000</v>
+        <v>-119.75</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>15527.396576</v>
+        <v>15527.396575999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.313166</v>
+        <v>4.3131659999999998</v>
       </c>
       <c r="R19" s="1">
-        <v>943.815000</v>
+        <v>943.81500000000005</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.416000</v>
+        <v>-103.416</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>15538.247586</v>
       </c>
       <c r="V19" s="1">
-        <v>4.316180</v>
+        <v>4.3161800000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>950.173000</v>
+        <v>950.173</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.365500</v>
+        <v>-88.365499999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>15548.765718</v>
+        <v>15548.765718000001</v>
       </c>
       <c r="AA19" s="1">
         <v>4.319102</v>
       </c>
       <c r="AB19" s="1">
-        <v>956.952000</v>
+        <v>956.952</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.760500</v>
+        <v>-76.760499999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>15559.265029</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.322018</v>
+        <v>4.3220179999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>961.630000</v>
+        <v>961.63</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.799400</v>
+        <v>-74.799400000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>15569.799560</v>
+        <v>15569.799559999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.324944</v>
+        <v>4.3249440000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>968.824000</v>
+        <v>968.82399999999996</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.760200</v>
+        <v>-79.760199999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>15580.649546</v>
+        <v>15580.649546000001</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.327958</v>
+        <v>4.3279579999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>976.911000</v>
+        <v>976.91099999999994</v>
       </c>
       <c r="AR19" s="1">
-        <v>-91.565400</v>
+        <v>-91.565399999999997</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>15591.661527</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.331017</v>
+        <v>4.3310170000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>986.794000</v>
+        <v>986.79399999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-109.557000</v>
+        <v>-109.557</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>15602.295950</v>
+        <v>15602.29595</v>
       </c>
       <c r="AZ19" s="1">
         <v>4.333971</v>
       </c>
       <c r="BA19" s="1">
-        <v>995.104000</v>
+        <v>995.10400000000004</v>
       </c>
       <c r="BB19" s="1">
-        <v>-125.319000</v>
+        <v>-125.319</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>15613.332468</v>
+        <v>15613.332468000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>4.337037</v>
+        <v>4.3370369999999996</v>
       </c>
       <c r="BF19" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG19" s="1">
-        <v>-198.039000</v>
+        <v>-198.03899999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>15624.508598</v>
@@ -5030,165 +5446,165 @@
         <v>4.340141</v>
       </c>
       <c r="BK19" s="1">
-        <v>1100.660000</v>
+        <v>1100.6600000000001</v>
       </c>
       <c r="BL19" s="1">
-        <v>-316.266000</v>
+        <v>-316.26600000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>15635.787836</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.343274</v>
+        <v>4.3432740000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1209.330000</v>
+        <v>1209.33</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-503.171000</v>
+        <v>-503.17099999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>15646.287123</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.346191</v>
+        <v>4.3461910000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1331.880000</v>
+        <v>1331.88</v>
       </c>
       <c r="BV19" s="1">
-        <v>-708.564000</v>
+        <v>-708.56399999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>15657.117301</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.349199</v>
+        <v>4.3491989999999996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1469.490000</v>
+        <v>1469.49</v>
       </c>
       <c r="CA19" s="1">
-        <v>-928.268000</v>
+        <v>-928.26800000000003</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>15669.676964</v>
       </c>
       <c r="CD19" s="1">
-        <v>4.352688</v>
+        <v>4.3526879999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>1832.250000</v>
+        <v>1832.25</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1450.670000</v>
+        <v>-1450.67</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>15496.257241</v>
+        <v>15496.257240999999</v>
       </c>
       <c r="B20" s="1">
-        <v>4.304516</v>
+        <v>4.3045159999999996</v>
       </c>
       <c r="C20" s="1">
-        <v>897.175000</v>
+        <v>897.17499999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.690000</v>
+        <v>-200.69</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>15506.749611</v>
+        <v>15506.749610999999</v>
       </c>
       <c r="G20" s="1">
-        <v>4.307430</v>
+        <v>4.3074300000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>915.232000</v>
+        <v>915.23199999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.721000</v>
+        <v>-169.721</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>15517.206765</v>
+        <v>15517.206765000001</v>
       </c>
       <c r="L20" s="1">
-        <v>4.310335</v>
+        <v>4.3103350000000002</v>
       </c>
       <c r="M20" s="1">
-        <v>937.391000</v>
+        <v>937.39099999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.765000</v>
+        <v>-119.765</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>15527.744769</v>
+        <v>15527.744769000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.313262</v>
+        <v>4.3132619999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>943.810000</v>
+        <v>943.81</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.406000</v>
+        <v>-103.40600000000001</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <v>15538.590323</v>
       </c>
       <c r="V20" s="1">
-        <v>4.316275</v>
+        <v>4.3162750000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>950.159000</v>
+        <v>950.15899999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.302100</v>
+        <v>-88.302099999999996</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>15549.116387</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.319199</v>
+        <v>4.3191990000000002</v>
       </c>
       <c r="AB20" s="1">
-        <v>957.076000</v>
+        <v>957.07600000000002</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.785700</v>
+        <v>-76.785700000000006</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>15559.678694</v>
@@ -5197,240 +5613,240 @@
         <v>4.322133</v>
       </c>
       <c r="AG20" s="1">
-        <v>961.669000</v>
+        <v>961.66899999999998</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.787700</v>
+        <v>-74.787700000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>15570.098649</v>
       </c>
       <c r="AK20" s="1">
-        <v>4.325027</v>
+        <v>4.3250270000000004</v>
       </c>
       <c r="AL20" s="1">
-        <v>968.842000</v>
+        <v>968.84199999999998</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.768100</v>
+        <v>-79.768100000000004</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>15580.957065</v>
+        <v>15580.957065000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.328044</v>
+        <v>4.3280440000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>976.890000</v>
+        <v>976.89</v>
       </c>
       <c r="AR20" s="1">
-        <v>-91.585000</v>
+        <v>-91.584999999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>15592.022810</v>
+        <v>15592.02281</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.331117</v>
+        <v>4.3311169999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>986.806000</v>
+        <v>986.80600000000004</v>
       </c>
       <c r="AW20" s="1">
-        <v>-109.543000</v>
+        <v>-109.54300000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>15602.654556</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.334071</v>
+        <v>4.3340709999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>995.104000</v>
+        <v>995.10400000000004</v>
       </c>
       <c r="BB20" s="1">
-        <v>-125.302000</v>
+        <v>-125.30200000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>15613.695502</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.337138</v>
+        <v>4.3371380000000004</v>
       </c>
       <c r="BF20" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-198.062000</v>
+        <v>-198.06200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>15625.258510</v>
+        <v>15625.25851</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.340350</v>
+        <v>4.3403499999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1100.690000</v>
+        <v>1100.69</v>
       </c>
       <c r="BL20" s="1">
-        <v>-316.292000</v>
+        <v>-316.29199999999997</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>15636.207626</v>
+        <v>15636.207625999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.343391</v>
+        <v>4.3433909999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1209.320000</v>
+        <v>1209.32</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-503.183000</v>
+        <v>-503.18299999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>15646.702306</v>
+        <v>15646.702305999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.346306</v>
+        <v>4.3463060000000002</v>
       </c>
       <c r="BU20" s="1">
-        <v>1331.810000</v>
+        <v>1331.81</v>
       </c>
       <c r="BV20" s="1">
-        <v>-708.531000</v>
+        <v>-708.53099999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>15657.538383</v>
+        <v>15657.538382999999</v>
       </c>
       <c r="BY20" s="1">
         <v>4.349316</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1469.510000</v>
+        <v>1469.51</v>
       </c>
       <c r="CA20" s="1">
-        <v>-928.363000</v>
+        <v>-928.36300000000006</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>15670.521317</v>
+        <v>15670.521317000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.352923</v>
+        <v>4.3529229999999997</v>
       </c>
       <c r="CE20" s="1">
-        <v>1832.240000</v>
+        <v>1832.24</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1449.620000</v>
+        <v>-1449.62</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>15496.627753</v>
+        <v>15496.627753000001</v>
       </c>
       <c r="B21" s="1">
-        <v>4.304619</v>
+        <v>4.3046189999999998</v>
       </c>
       <c r="C21" s="1">
-        <v>896.933000</v>
+        <v>896.93299999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.629000</v>
+        <v>-200.62899999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>15507.093366</v>
+        <v>15507.093365999999</v>
       </c>
       <c r="G21" s="1">
-        <v>4.307526</v>
+        <v>4.3075260000000002</v>
       </c>
       <c r="H21" s="1">
-        <v>914.666000</v>
+        <v>914.66600000000005</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.352000</v>
+        <v>-169.352</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>15517.550494</v>
+        <v>15517.550493999999</v>
       </c>
       <c r="L21" s="1">
-        <v>4.310431</v>
+        <v>4.3104310000000003</v>
       </c>
       <c r="M21" s="1">
-        <v>937.116000</v>
+        <v>937.11599999999999</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.696000</v>
+        <v>-119.696</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>15528.093488</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.313359</v>
+        <v>4.3133590000000002</v>
       </c>
       <c r="R21" s="1">
-        <v>943.839000</v>
+        <v>943.83900000000006</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.400000</v>
+        <v>-103.4</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>15539.015877</v>
       </c>
       <c r="V21" s="1">
-        <v>4.316393</v>
+        <v>4.3163929999999997</v>
       </c>
       <c r="W21" s="1">
-        <v>950.105000</v>
+        <v>950.10500000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.399400</v>
+        <v>-88.3994</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>15549.544435</v>
@@ -5439,43 +5855,43 @@
         <v>4.319318</v>
       </c>
       <c r="AB21" s="1">
-        <v>957.028000</v>
+        <v>957.02800000000002</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.877500</v>
+        <v>-76.877499999999998</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>15559.968358</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.322213</v>
+        <v>4.3222129999999996</v>
       </c>
       <c r="AG21" s="1">
-        <v>961.653000</v>
+        <v>961.65300000000002</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.811600</v>
+        <v>-74.811599999999999</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>15570.444888</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.325124</v>
+        <v>4.3251239999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>968.822000</v>
+        <v>968.822</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.753300</v>
+        <v>-79.753299999999996</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>15581.318152</v>
@@ -5484,407 +5900,407 @@
         <v>4.328144</v>
       </c>
       <c r="AQ21" s="1">
-        <v>976.882000</v>
+        <v>976.88199999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-91.578500</v>
+        <v>-91.578500000000005</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>15592.387866</v>
+        <v>15592.387865999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.331219</v>
+        <v>4.3312189999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>986.788000</v>
+        <v>986.78800000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-109.538000</v>
+        <v>-109.538</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>15603.381195</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.334273</v>
+        <v>4.3342729999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>995.096000</v>
+        <v>995.096</v>
       </c>
       <c r="BB21" s="1">
-        <v>-125.305000</v>
+        <v>-125.30500000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>15614.414237</v>
+        <v>15614.414237000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.337337</v>
+        <v>4.3373369999999998</v>
       </c>
       <c r="BF21" s="1">
-        <v>1033.840000</v>
+        <v>1033.8399999999999</v>
       </c>
       <c r="BG21" s="1">
-        <v>-198.062000</v>
+        <v>-198.06200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>15625.633214</v>
+        <v>15625.633213999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.340454</v>
+        <v>4.3404540000000003</v>
       </c>
       <c r="BK21" s="1">
-        <v>1100.620000</v>
+        <v>1100.6199999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-316.312000</v>
+        <v>-316.31200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>15636.601247</v>
+        <v>15636.601247000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.343500</v>
+        <v>4.3434999999999997</v>
       </c>
       <c r="BP21" s="1">
-        <v>1209.320000</v>
+        <v>1209.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-503.192000</v>
+        <v>-503.19200000000001</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>15647.141729</v>
+        <v>15647.141729000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.346428</v>
+        <v>4.3464280000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-708.541000</v>
+        <v>-708.54100000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>15658.269970</v>
+        <v>15658.269969999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.349519</v>
+        <v>4.3495189999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1469.660000</v>
+        <v>1469.66</v>
       </c>
       <c r="CA21" s="1">
-        <v>-928.348000</v>
+        <v>-928.34799999999996</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>15670.753295</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.352987</v>
+        <v>4.3529869999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>1832.080000</v>
+        <v>1832.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1449.520000</v>
+        <v>-1449.52</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>15496.972968</v>
       </c>
       <c r="B22" s="1">
-        <v>4.304715</v>
+        <v>4.3047149999999998</v>
       </c>
       <c r="C22" s="1">
-        <v>897.050000</v>
+        <v>897.05</v>
       </c>
       <c r="D22" s="1">
-        <v>-200.740000</v>
+        <v>-200.74</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>15507.439578</v>
       </c>
       <c r="G22" s="1">
-        <v>4.307622</v>
+        <v>4.3076220000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>914.803000</v>
+        <v>914.803</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.568000</v>
+        <v>-169.56800000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>15518.099109</v>
+        <v>15518.099109000001</v>
       </c>
       <c r="L22" s="1">
-        <v>4.310583</v>
+        <v>4.3105830000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>937.593000</v>
+        <v>937.59299999999996</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.973000</v>
+        <v>-119.973</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>15528.507120</v>
+        <v>15528.50712</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.313474</v>
+        <v>4.3134740000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>943.848000</v>
+        <v>943.84799999999996</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.374000</v>
+        <v>-103.374</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>15539.277744</v>
+        <v>15539.277744000001</v>
       </c>
       <c r="V22" s="1">
-        <v>4.316466</v>
+        <v>4.3164660000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>950.088000</v>
+        <v>950.08799999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.356800</v>
+        <v>-88.356800000000007</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>15549.826660</v>
+        <v>15549.826660000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>4.319396</v>
+        <v>4.3193960000000002</v>
       </c>
       <c r="AB22" s="1">
-        <v>957.022000</v>
+        <v>957.02200000000005</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.894100</v>
+        <v>-76.894099999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>15560.311588</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.322309</v>
+        <v>4.3223089999999997</v>
       </c>
       <c r="AG22" s="1">
-        <v>961.659000</v>
+        <v>961.65899999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.826900</v>
+        <v>-74.826899999999995</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>15570.787623</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.325219</v>
+        <v>4.3252189999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>968.820000</v>
+        <v>968.82</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.761200</v>
+        <v>-79.761200000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>15581.679738</v>
+        <v>15581.679738000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.328244</v>
+        <v>4.3282439999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>976.898000</v>
+        <v>976.89800000000002</v>
       </c>
       <c r="AR22" s="1">
-        <v>-91.572500</v>
+        <v>-91.572500000000005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>15593.118010</v>
+        <v>15593.11801</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.331422</v>
+        <v>4.3314219999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>986.795000</v>
+        <v>986.79499999999996</v>
       </c>
       <c r="AW22" s="1">
-        <v>-109.541000</v>
+        <v>-109.541</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>15603.755675</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.334377</v>
+        <v>4.3343769999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>995.098000</v>
+        <v>995.09799999999996</v>
       </c>
       <c r="BB22" s="1">
-        <v>-125.318000</v>
+        <v>-125.318</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>15614.779757</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.337439</v>
+        <v>4.3374389999999998</v>
       </c>
       <c r="BF22" s="1">
-        <v>1033.850000</v>
+        <v>1033.8499999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-198.042000</v>
+        <v>-198.042</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>15626.012653</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.340559</v>
+        <v>4.3405589999999998</v>
       </c>
       <c r="BK22" s="1">
-        <v>1100.680000</v>
+        <v>1100.68</v>
       </c>
       <c r="BL22" s="1">
-        <v>-316.256000</v>
+        <v>-316.25599999999997</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>15637.334367</v>
+        <v>15637.334366999999</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.343704</v>
+        <v>4.3437039999999998</v>
       </c>
       <c r="BP22" s="1">
-        <v>1209.320000</v>
+        <v>1209.32</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-503.177000</v>
+        <v>-503.17700000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>15647.873209</v>
+        <v>15647.873208999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.346631</v>
+        <v>4.3466310000000004</v>
       </c>
       <c r="BU22" s="1">
-        <v>1331.880000</v>
+        <v>1331.88</v>
       </c>
       <c r="BV22" s="1">
-        <v>-708.570000</v>
+        <v>-708.57</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>15658.383059</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.349551</v>
+        <v>4.3495509999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1469.590000</v>
+        <v>1469.59</v>
       </c>
       <c r="CA22" s="1">
-        <v>-928.157000</v>
+        <v>-928.15700000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>15671.274119</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.353132</v>
+        <v>4.3531319999999996</v>
       </c>
       <c r="CE22" s="1">
-        <v>1832.020000</v>
+        <v>1832.02</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1450.630000</v>
+        <v>-1450.63</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>15497.310743</v>
       </c>
       <c r="B23" s="1">
-        <v>4.304809</v>
+        <v>4.3048089999999997</v>
       </c>
       <c r="C23" s="1">
-        <v>897.043000</v>
+        <v>897.04300000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.576000</v>
+        <v>-200.57599999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>15507.867097</v>
@@ -5893,208 +6309,208 @@
         <v>4.307741</v>
       </c>
       <c r="H23" s="1">
-        <v>914.776000</v>
+        <v>914.77599999999995</v>
       </c>
       <c r="I23" s="1">
-        <v>-169.264000</v>
+        <v>-169.26400000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>15518.241453</v>
+        <v>15518.241453000001</v>
       </c>
       <c r="L23" s="1">
-        <v>4.310623</v>
+        <v>4.3106229999999996</v>
       </c>
       <c r="M23" s="1">
-        <v>937.278000</v>
+        <v>937.27800000000002</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.630000</v>
+        <v>-119.63</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>15528.804254</v>
+        <v>15528.804254000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.313557</v>
+        <v>4.3135570000000003</v>
       </c>
       <c r="R23" s="1">
-        <v>943.870000</v>
+        <v>943.87</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.399000</v>
+        <v>-103.399</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>15539.624944</v>
+        <v>15539.624943999999</v>
       </c>
       <c r="V23" s="1">
-        <v>4.316562</v>
+        <v>4.3165620000000002</v>
       </c>
       <c r="W23" s="1">
-        <v>950.147000</v>
+        <v>950.14700000000005</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.328800</v>
+        <v>-88.328800000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>15550.170387</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.319492</v>
+        <v>4.3194920000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>957.097000</v>
+        <v>957.09699999999998</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.926400</v>
+        <v>-76.926400000000001</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>15560.656806</v>
+        <v>15560.656806000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.322405</v>
+        <v>4.3224049999999998</v>
       </c>
       <c r="AG23" s="1">
-        <v>961.663000</v>
+        <v>961.66300000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.795700</v>
+        <v>-74.795699999999997</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
         <v>15571.486949</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.325413</v>
+        <v>4.3254130000000002</v>
       </c>
       <c r="AL23" s="1">
-        <v>968.806000</v>
+        <v>968.80600000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.752900</v>
+        <v>-79.752899999999997</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>15582.398935</v>
+        <v>15582.398934999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>4.328444</v>
+        <v>4.3284440000000002</v>
       </c>
       <c r="AQ23" s="1">
-        <v>976.889000</v>
+        <v>976.88900000000001</v>
       </c>
       <c r="AR23" s="1">
-        <v>-91.569100</v>
+        <v>-91.569100000000006</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>15593.484057</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.331523</v>
+        <v>4.3315229999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>986.792000</v>
+        <v>986.79200000000003</v>
       </c>
       <c r="AW23" s="1">
-        <v>-109.537000</v>
+        <v>-109.53700000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>15604.134122</v>
+        <v>15604.134121999999</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.334482</v>
+        <v>4.3344820000000004</v>
       </c>
       <c r="BA23" s="1">
-        <v>995.092000</v>
+        <v>995.09199999999998</v>
       </c>
       <c r="BB23" s="1">
-        <v>-125.324000</v>
+        <v>-125.324</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>15615.140347</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.337539</v>
+        <v>4.3375389999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1033.860000</v>
+        <v>1033.8599999999999</v>
       </c>
       <c r="BG23" s="1">
-        <v>-198.055000</v>
+        <v>-198.05500000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>15626.694654</v>
+        <v>15626.694654000001</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.340749</v>
+        <v>4.3407489999999997</v>
       </c>
       <c r="BK23" s="1">
-        <v>1100.630000</v>
+        <v>1100.6300000000001</v>
       </c>
       <c r="BL23" s="1">
-        <v>-316.283000</v>
+        <v>-316.28300000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>15637.450398</v>
+        <v>15637.450398000001</v>
       </c>
       <c r="BO23" s="1">
-        <v>4.343736</v>
+        <v>4.3437359999999998</v>
       </c>
       <c r="BP23" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-503.196000</v>
+        <v>-503.19600000000003</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>15648.014192</v>
+        <v>15648.014192000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>4.346671</v>
+        <v>4.3466709999999997</v>
       </c>
       <c r="BU23" s="1">
-        <v>1331.840000</v>
+        <v>1331.84</v>
       </c>
       <c r="BV23" s="1">
-        <v>-708.569000</v>
+        <v>-708.56899999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>15658.818073</v>
@@ -6103,31 +6519,31 @@
         <v>4.349672</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1469.550000</v>
+        <v>1469.55</v>
       </c>
       <c r="CA23" s="1">
-        <v>-928.324000</v>
+        <v>-928.32399999999996</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>15671.788968</v>
+        <v>15671.788968000001</v>
       </c>
       <c r="CD23" s="1">
         <v>4.353275</v>
       </c>
       <c r="CE23" s="1">
-        <v>1833.420000</v>
+        <v>1833.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1450.940000</v>
+        <v>-1450.94</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>15497.733831</v>
       </c>
@@ -6135,223 +6551,223 @@
         <v>4.304926</v>
       </c>
       <c r="C24" s="1">
-        <v>896.961000</v>
+        <v>896.96100000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.670000</v>
+        <v>-200.67</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>15508.130009</v>
       </c>
       <c r="G24" s="1">
-        <v>4.307814</v>
+        <v>4.3078139999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>914.554000</v>
+        <v>914.55399999999997</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.256000</v>
+        <v>-169.256</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>15518.584819</v>
       </c>
       <c r="L24" s="1">
-        <v>4.310718</v>
+        <v>4.3107179999999996</v>
       </c>
       <c r="M24" s="1">
-        <v>937.340000</v>
+        <v>937.34</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.720000</v>
+        <v>-119.72</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>15529.149946</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.313653</v>
+        <v>4.3136530000000004</v>
       </c>
       <c r="R24" s="1">
-        <v>943.873000</v>
+        <v>943.87300000000005</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.424000</v>
+        <v>-103.42400000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>15539.968175</v>
       </c>
       <c r="V24" s="1">
-        <v>4.316658</v>
+        <v>4.3166580000000003</v>
       </c>
       <c r="W24" s="1">
-        <v>950.143000</v>
+        <v>950.14300000000003</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.418800</v>
+        <v>-88.418800000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>15550.520065</v>
+        <v>15550.520065000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.319589</v>
+        <v>4.3195889999999997</v>
       </c>
       <c r="AB24" s="1">
-        <v>957.092000</v>
+        <v>957.09199999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.862200</v>
+        <v>-76.862200000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>15561.343796</v>
+        <v>15561.343795999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.322595</v>
+        <v>4.3225949999999997</v>
       </c>
       <c r="AG24" s="1">
-        <v>961.696000</v>
+        <v>961.69600000000003</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.817200</v>
+        <v>-74.8172</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>15571.834645</v>
+        <v>15571.834645000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>4.325510</v>
+        <v>4.3255100000000004</v>
       </c>
       <c r="AL24" s="1">
-        <v>968.829000</v>
+        <v>968.82899999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.784500</v>
+        <v>-79.784499999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>15582.757083</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.328544</v>
+        <v>4.3285439999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>976.886000</v>
+        <v>976.88599999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-91.593000</v>
+        <v>-91.593000000000004</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>15593.848616</v>
+        <v>15593.848615999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.331625</v>
+        <v>4.3316249999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>986.791000</v>
+        <v>986.79100000000005</v>
       </c>
       <c r="AW24" s="1">
-        <v>-109.520000</v>
+        <v>-109.52</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>15604.802265</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.334667</v>
+        <v>4.3346669999999996</v>
       </c>
       <c r="BA24" s="1">
-        <v>995.097000</v>
+        <v>995.09699999999998</v>
       </c>
       <c r="BB24" s="1">
-        <v>-125.310000</v>
+        <v>-125.31</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>15615.817883</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.337727</v>
+        <v>4.3377270000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1033.840000</v>
+        <v>1033.8399999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-198.050000</v>
+        <v>-198.05</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>15627.133116</v>
+        <v>15627.133116000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.340870</v>
+        <v>4.3408699999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1100.690000</v>
+        <v>1100.69</v>
       </c>
       <c r="BL24" s="1">
-        <v>-316.297000</v>
+        <v>-316.29700000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>15637.847198</v>
+        <v>15637.847197999999</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.343846</v>
+        <v>4.3438460000000001</v>
       </c>
       <c r="BP24" s="1">
-        <v>1209.300000</v>
+        <v>1209.3</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-503.177000</v>
+        <v>-503.17700000000002</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>15648.423888</v>
+        <v>15648.423887999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.346784</v>
+        <v>4.3467840000000004</v>
       </c>
       <c r="BU24" s="1">
-        <v>1331.900000</v>
+        <v>1331.9</v>
       </c>
       <c r="BV24" s="1">
-        <v>-708.638000</v>
+        <v>-708.63800000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>15659.274866</v>
@@ -6360,544 +6776,545 @@
         <v>4.349799</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1469.520000</v>
+        <v>1469.52</v>
       </c>
       <c r="CA24" s="1">
-        <v>-928.425000</v>
+        <v>-928.42499999999995</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
         <v>15672.309234</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.353419</v>
+        <v>4.3534189999999997</v>
       </c>
       <c r="CE24" s="1">
-        <v>1833.270000</v>
+        <v>1833.27</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1449.540000</v>
+        <v>-1449.54</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>15498.012086</v>
+        <v>15498.012086000001</v>
       </c>
       <c r="B25" s="1">
-        <v>4.305003</v>
+        <v>4.3050030000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>896.839000</v>
+        <v>896.83900000000006</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.824000</v>
+        <v>-200.82400000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>15508.475690</v>
+        <v>15508.475689999999</v>
       </c>
       <c r="G25" s="1">
-        <v>4.307910</v>
+        <v>4.3079099999999997</v>
       </c>
       <c r="H25" s="1">
-        <v>914.155000</v>
+        <v>914.15499999999997</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.442000</v>
+        <v>-169.44200000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>15518.933835</v>
       </c>
       <c r="L25" s="1">
-        <v>4.310815</v>
+        <v>4.3108149999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>937.157000</v>
+        <v>937.15700000000004</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.578000</v>
+        <v>-119.578</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>15529.500401</v>
+        <v>15529.500400999999</v>
       </c>
       <c r="Q25" s="1">
-        <v>4.313750</v>
+        <v>4.3137499999999998</v>
       </c>
       <c r="R25" s="1">
-        <v>943.817000</v>
+        <v>943.81700000000001</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.398000</v>
+        <v>-103.398</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>15540.654143</v>
       </c>
       <c r="V25" s="1">
-        <v>4.316848</v>
+        <v>4.3168480000000002</v>
       </c>
       <c r="W25" s="1">
-        <v>950.153000</v>
+        <v>950.15300000000002</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.331500</v>
+        <v>-88.331500000000005</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>15551.226864</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.319785</v>
+        <v>4.3197850000000004</v>
       </c>
       <c r="AB25" s="1">
-        <v>956.911000</v>
+        <v>956.91099999999994</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.867000</v>
+        <v>-76.867000000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>15561.686003</v>
+        <v>15561.686003000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.322691</v>
+        <v>4.3226909999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>961.653000</v>
+        <v>961.65300000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.781300</v>
+        <v>-74.781300000000002</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>15572.185318</v>
       </c>
       <c r="AK25" s="1">
-        <v>4.325607</v>
+        <v>4.3256069999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>968.823000</v>
+        <v>968.82299999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.752600</v>
+        <v>-79.752600000000001</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>15583.116150</v>
+        <v>15583.11615</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.328643</v>
+        <v>4.3286429999999996</v>
       </c>
       <c r="AQ25" s="1">
-        <v>976.872000</v>
+        <v>976.87199999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-91.565500</v>
+        <v>-91.5655</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>15594.532073</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.331814</v>
+        <v>4.3318139999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>986.782000</v>
+        <v>986.78200000000004</v>
       </c>
       <c r="AW25" s="1">
-        <v>-109.548000</v>
+        <v>-109.548</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>15605.219897</v>
+        <v>15605.219897000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.334783</v>
+        <v>4.3347829999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>995.092000</v>
+        <v>995.09199999999998</v>
       </c>
       <c r="BB25" s="1">
-        <v>-125.326000</v>
+        <v>-125.32599999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>15616.241466</v>
+        <v>15616.241465999999</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.337845</v>
+        <v>4.3378449999999997</v>
       </c>
       <c r="BF25" s="1">
-        <v>1033.810000</v>
+        <v>1033.81</v>
       </c>
       <c r="BG25" s="1">
-        <v>-198.076000</v>
+        <v>-198.07599999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>15627.511601</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.340975</v>
+        <v>4.3409750000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1100.630000</v>
+        <v>1100.6300000000001</v>
       </c>
       <c r="BL25" s="1">
-        <v>-316.313000</v>
+        <v>-316.31299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>15638.270782</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.343964</v>
+        <v>4.3439639999999997</v>
       </c>
       <c r="BP25" s="1">
-        <v>1209.310000</v>
+        <v>1209.31</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-503.199000</v>
+        <v>-503.19900000000001</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>15648.850448</v>
+        <v>15648.850447999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.346903</v>
+        <v>4.3469030000000002</v>
       </c>
       <c r="BU25" s="1">
-        <v>1331.870000</v>
+        <v>1331.87</v>
       </c>
       <c r="BV25" s="1">
-        <v>-708.587000</v>
+        <v>-708.58699999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>15659.722753</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.349923</v>
+        <v>4.3499230000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1469.610000</v>
+        <v>1469.61</v>
       </c>
       <c r="CA25" s="1">
-        <v>-928.414000</v>
+        <v>-928.41399999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>15672.830032</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.353564</v>
+        <v>4.3535640000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1833.120000</v>
+        <v>1833.12</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1449.700000</v>
+        <v>-1449.7</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>15498.352343</v>
       </c>
       <c r="B26" s="1">
-        <v>4.305098</v>
+        <v>4.3050980000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>897.070000</v>
+        <v>897.07</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.423000</v>
+        <v>-200.423</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>15508.820937</v>
       </c>
       <c r="G26" s="1">
-        <v>4.308006</v>
+        <v>4.3080059999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>914.808000</v>
+        <v>914.80799999999999</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.467000</v>
+        <v>-169.46700000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>15519.628267</v>
       </c>
       <c r="L26" s="1">
-        <v>4.311008</v>
+        <v>4.3110080000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>937.382000</v>
+        <v>937.38199999999995</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.814000</v>
+        <v>-119.81399999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>15530.195500</v>
+        <v>15530.1955</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.313943</v>
+        <v>4.3139430000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>943.809000</v>
+        <v>943.80899999999997</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.384000</v>
+        <v>-103.384</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>15540.999855</v>
       </c>
       <c r="V26" s="1">
-        <v>4.316944</v>
+        <v>4.3169440000000003</v>
       </c>
       <c r="W26" s="1">
-        <v>950.169000</v>
+        <v>950.16899999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.365200</v>
+        <v>-88.365200000000002</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>15551.563153</v>
+        <v>15551.563152999999</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.319879</v>
+        <v>4.3198790000000002</v>
       </c>
       <c r="AB26" s="1">
-        <v>957.087000</v>
+        <v>957.08699999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.893600</v>
+        <v>-76.893600000000006</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>15562.032715</v>
+        <v>15562.032714999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.322787</v>
+        <v>4.3227869999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>961.685000</v>
+        <v>961.68499999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.799300</v>
+        <v>-74.799300000000002</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>15572.846757</v>
+        <v>15572.846756999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.325791</v>
+        <v>4.3257909999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>968.805000</v>
+        <v>968.80499999999995</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.759900</v>
+        <v>-79.759900000000002</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>15583.851253</v>
+        <v>15583.851253000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.328848</v>
+        <v>4.3288479999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>976.868000</v>
+        <v>976.86800000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-91.581100</v>
+        <v>-91.581100000000006</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>15594.939287</v>
+        <v>15594.939286999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.331928</v>
+        <v>4.3319279999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>986.783000</v>
+        <v>986.78300000000002</v>
       </c>
       <c r="AW26" s="1">
-        <v>-109.558000</v>
+        <v>-109.55800000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>15605.595336</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.334888</v>
+        <v>4.3348880000000003</v>
       </c>
       <c r="BA26" s="1">
-        <v>995.097000</v>
+        <v>995.09699999999998</v>
       </c>
       <c r="BB26" s="1">
-        <v>-125.305000</v>
+        <v>-125.30500000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>15616.666042</v>
+        <v>15616.666042000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.337963</v>
+        <v>4.3379630000000002</v>
       </c>
       <c r="BF26" s="1">
-        <v>1033.830000</v>
+        <v>1033.83</v>
       </c>
       <c r="BG26" s="1">
-        <v>-198.043000</v>
+        <v>-198.04300000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>15627.889547</v>
+        <v>15627.889547000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.341080</v>
+        <v>4.3410799999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1100.670000</v>
+        <v>1100.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-316.255000</v>
+        <v>-316.255</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>15638.704781</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.344085</v>
+        <v>4.3440849999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1209.280000</v>
+        <v>1209.28</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-503.190000</v>
+        <v>-503.19</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>15649.267087</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.347019</v>
+        <v>4.3470190000000004</v>
       </c>
       <c r="BU26" s="1">
-        <v>1331.930000</v>
+        <v>1331.93</v>
       </c>
       <c r="BV26" s="1">
-        <v>-708.590000</v>
+        <v>-708.59</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>15660.144880</v>
+        <v>15660.14488</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.350040</v>
+        <v>4.3500399999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1469.640000</v>
+        <v>1469.64</v>
       </c>
       <c r="CA26" s="1">
-        <v>-928.400000</v>
+        <v>-928.4</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>15673.380127</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.353717</v>
+        <v>4.3537169999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>1833.420000</v>
+        <v>1833.42</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1450.550000</v>
+        <v>-1450.55</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>